--- a/EQUIPO 1-COEVALUACIÓN 1P.xlsx
+++ b/EQUIPO 1-COEVALUACIÓN 1P.xlsx
@@ -1,62 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Desktop\UTCV\5to\Proyecto\Bitacora\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2ADE41-24C6-4704-84C4-23299F0A4B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Coevaluación" sheetId="1" r:id="rId4"/>
+    <sheet name="Coevaluación" sheetId="1" r:id="rId1"/>
+    <sheet name="Coevaluación 2" sheetId="7" r:id="rId2"/>
+    <sheet name="Coevaluación 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Coevaluación 4" sheetId="4" r:id="rId4"/>
+    <sheet name="Coevaluación 5" sheetId="5" r:id="rId5"/>
+    <sheet name="Coevaluación 6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="ohEwZsFiUArpblWU3gA128/1+4uSXhSLtOndE/wIQCA="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="ohEwZsFiUArpblWU3gA128/1+4uSXhSLtOndE/wIQCA="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="35">
   <si>
     <t>TI EN INFRAESTRUCTURA DE REDES DIGITALES</t>
   </si>
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">Nombre: __________________________________________
-Parcial: _______________      Cuatrimestre: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="10.0"/>
-        <u/>
-      </rPr>
-      <t>____________</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>Objetivo:</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> La presente evaluación tiene como fin calificar la participación de cada uni de los integrantes de tu equipo de trabajo para el desarrollo de tu proyecto de Investigación.</t>
     </r>
@@ -64,35 +65,35 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>Instrucción:</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> Coloca el nombre de tus compañeros de equipo en cada una de las celdas e indica el número que evalue el desempeño de cada uno en las diferentes categorias. Para asignar el número toma en cuenta los siguientes criterios: </t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <i/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>Tienes que repartir (n-1)*10 puntos, donde n es el número de integrantes, no puedes repetir puntuaciones en un mismo criterio y es muy importante que tu coevaluación sea objetiva e imparcial.</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -140,61 +141,209 @@
   <si>
     <t>Firma del Alumno</t>
   </si>
+  <si>
+    <t xml:space="preserve">         Alejandro Arenas Lopez</t>
+  </si>
+  <si>
+    <t>Radilla Partida Eleonor</t>
+  </si>
+  <si>
+    <t>Peralta Garcia Fatima</t>
+  </si>
+  <si>
+    <t>Monraga Contreras Zahid</t>
+  </si>
+  <si>
+    <t>Hernandez Torres Jesus Aldahir</t>
+  </si>
+  <si>
+    <t>Torres Martinez Jesus Hernesto</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nombre: _Arenas_Lopez_Alejandro___________________
+Parcial: _____1P________      Cuatrimestre: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>___5to______</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nombre: _Peralta_Garcia_Fatima___________________
+Parcial: _____1P________      Cuatrimestre: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>___5to______</t>
+    </r>
+  </si>
+  <si>
+    <t>Arenas Lopez Alejandro</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nombre: _Monraga_Contreras_Zahid___________________
+Parcial: _____1P________      Cuatrimestre: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>___5to______</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nombre: _Hernandez_Torres_Jesus_Aldahir___________
+Parcial: _____1P________      Cuatrimestre: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>___5to______</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nombre: _Torres_Martinez_Jesus_Ernesto____________
+Parcial: _____1P________      Cuatrimestre: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>___5to______</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nombre: _Radilla_Partida_Eleonor_Guadalupe_________
+Parcial: _____1P________      Cuatrimestre: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>___5to______</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            Radilla Partida Eleonor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Monraga Contreras Zahid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Peralta Garcia Fatima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Hernandez Torres Jesus Aldahir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Torres Martinez Jesus Hernesto</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -204,7 +353,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -280,27 +429,39 @@
     </fill>
   </fills>
   <borders count="16">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -310,27 +471,38 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -345,6 +517,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -356,16 +529,26 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -374,27 +557,40 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -403,98 +599,105 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="35">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="7" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="7" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="8" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="9" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="10" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="11" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="12" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="12" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="13" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -684,285 +887,474 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="B1:M1001"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:D16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="2.29"/>
-    <col customWidth="1" min="2" max="2" width="2.86"/>
-    <col customWidth="1" min="3" max="3" width="14.29"/>
-    <col customWidth="1" min="4" max="4" width="16.0"/>
-    <col customWidth="1" min="5" max="5" width="12.86"/>
-    <col customWidth="1" min="6" max="6" width="11.71"/>
-    <col customWidth="1" min="7" max="7" width="11.86"/>
-    <col customWidth="1" min="8" max="8" width="17.0"/>
-    <col customWidth="1" min="9" max="9" width="13.14"/>
-    <col customWidth="1" min="10" max="10" width="16.0"/>
-    <col customWidth="1" min="11" max="11" width="15.14"/>
-    <col customWidth="1" min="12" max="12" width="7.0"/>
-    <col customWidth="1" min="13" max="26" width="10.86"/>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="2.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" customWidth="1"/>
+    <col min="12" max="12" width="7" customWidth="1"/>
+    <col min="13" max="26" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="1.5" customHeight="1">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:13" ht="1.5" customHeight="1">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" ht="1.5" customHeight="1"/>
-    <row r="3" ht="54.0" customHeight="1">
-      <c r="G3" s="2"/>
-      <c r="H3" s="3" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="2:13" ht="1.5" customHeight="1">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="2:13" ht="54" customHeight="1">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="2:13" ht="45.75" customHeight="1">
+      <c r="B4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" ht="45.75" customHeight="1">
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="2:13" ht="14.4">
+      <c r="B5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="7"/>
-    </row>
-    <row r="5">
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+    </row>
+    <row r="6" spans="2:13" ht="15" customHeight="1">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+    </row>
+    <row r="7" spans="2:13" ht="15" customHeight="1">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+    </row>
+    <row r="9" spans="2:13" ht="14.4">
+      <c r="B9" s="17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" ht="15.0" customHeight="1"/>
-    <row r="7" ht="15.0" customHeight="1"/>
-    <row r="9">
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="16"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11" t="s">
+      <c r="F9" s="14"/>
+      <c r="G9" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="12" t="s">
+      <c r="H9" s="29"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="13" t="s">
+      <c r="K9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="L9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L9" s="15" t="s">
+    </row>
+    <row r="10" spans="2:13" ht="15" customHeight="1">
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="25" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" ht="15.0" customHeight="1">
-      <c r="B10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18" t="s">
+      <c r="F10" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="G10" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="H10" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="I10" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="J10" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="K10" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" ht="14.4">
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="2:13" ht="14.4">
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="2:13" ht="14.4">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="2:13" ht="14.4">
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="2:13" ht="21" customHeight="1">
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="6">
+        <v>10</v>
+      </c>
+      <c r="F15" s="6">
+        <v>13</v>
+      </c>
+      <c r="G15" s="6">
+        <v>12</v>
+      </c>
+      <c r="H15" s="6">
+        <v>12</v>
+      </c>
+      <c r="I15" s="6">
+        <v>13</v>
+      </c>
+      <c r="J15" s="6">
+        <v>12</v>
+      </c>
+      <c r="K15" s="6">
+        <v>12</v>
+      </c>
+      <c r="L15" s="7">
+        <f>SUM(E15:K15)</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="21" customHeight="1">
+      <c r="B16" s="5">
+        <v>2</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="5">
+        <v>12</v>
+      </c>
+      <c r="F16" s="5">
+        <v>11</v>
+      </c>
+      <c r="G16" s="5">
+        <v>11</v>
+      </c>
+      <c r="H16" s="5">
+        <v>10</v>
+      </c>
+      <c r="I16" s="5">
+        <v>10</v>
+      </c>
+      <c r="J16" s="5">
+        <v>10</v>
+      </c>
+      <c r="K16" s="5">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7">
+        <f t="shared" ref="L16:L19" si="0">SUM(E16:K16)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="21" customHeight="1">
+      <c r="B17" s="5">
+        <v>3</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="6">
+        <v>13</v>
+      </c>
+      <c r="F17" s="6">
+        <v>10</v>
+      </c>
+      <c r="G17" s="6">
+        <v>13</v>
+      </c>
+      <c r="H17" s="6">
+        <v>13</v>
+      </c>
+      <c r="I17" s="6">
+        <v>11</v>
+      </c>
+      <c r="J17" s="6">
+        <v>13</v>
+      </c>
+      <c r="K17" s="6">
+        <v>13</v>
+      </c>
+      <c r="L17" s="7">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="21" customHeight="1">
+      <c r="B18" s="5">
+        <v>4</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="5">
+        <v>9</v>
+      </c>
+      <c r="F18" s="5">
+        <v>9</v>
+      </c>
+      <c r="G18" s="5">
+        <v>8</v>
+      </c>
+      <c r="H18" s="6">
+        <v>8</v>
+      </c>
+      <c r="I18" s="5">
+        <v>9</v>
+      </c>
+      <c r="J18" s="5">
+        <v>8</v>
+      </c>
+      <c r="K18" s="5">
+        <v>8</v>
+      </c>
+      <c r="L18" s="7">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="21" customHeight="1">
+      <c r="B19" s="5">
+        <v>5</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="6">
+        <v>6</v>
+      </c>
+      <c r="F19" s="6">
+        <v>7</v>
+      </c>
+      <c r="G19" s="6">
+        <v>6</v>
+      </c>
+      <c r="H19" s="6">
+        <v>7</v>
+      </c>
+      <c r="I19" s="6">
+        <v>7</v>
+      </c>
+      <c r="J19" s="6">
+        <v>7</v>
+      </c>
+      <c r="K19" s="6">
+        <v>6</v>
+      </c>
+      <c r="L19" s="7">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="21" customHeight="1">
+      <c r="B20" s="5">
+        <v>6</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="5">
+        <f>SUM(E15:E19)</f>
+        <v>50</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" ref="F20:K20" si="1">SUM(F15:F19)</f>
+        <v>50</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J20" s="5">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="K20" s="5">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="L20" s="7">
+        <f>SUM(L15:L19)</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B21" s="5">
+        <v>7</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="7"/>
+    </row>
+    <row r="22" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="23" spans="2:12" ht="15.75" customHeight="1">
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="15.75" customHeight="1">
+      <c r="F24" s="8"/>
+      <c r="G24" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="22"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-    </row>
-    <row r="15" ht="21.0" customHeight="1">
-      <c r="B15" s="27">
-        <v>1.0</v>
-      </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="30"/>
-    </row>
-    <row r="16" ht="21.0" customHeight="1">
-      <c r="B16" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="30"/>
-    </row>
-    <row r="17" ht="21.0" customHeight="1">
-      <c r="B17" s="27">
-        <v>3.0</v>
-      </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="30"/>
-    </row>
-    <row r="18" ht="21.0" customHeight="1">
-      <c r="B18" s="27">
-        <v>4.0</v>
-      </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="30"/>
-    </row>
-    <row r="19" ht="21.0" customHeight="1">
-      <c r="B19" s="27">
-        <v>5.0</v>
-      </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="30"/>
-    </row>
-    <row r="20" ht="21.0" customHeight="1">
-      <c r="B20" s="27">
-        <v>6.0</v>
-      </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="30"/>
-    </row>
-    <row r="21" ht="21.75" customHeight="1">
-      <c r="B21" s="27">
-        <v>7.0</v>
-      </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="30"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="F24" s="31"/>
-      <c r="G24" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="9"/>
-      <c r="I24" s="31"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="38.25" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="26" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="27" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="28" spans="2:12" ht="38.25" customHeight="1"/>
+    <row r="29" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="30" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="31" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="32" spans="2:12" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -1934,12 +2326,7 @@
     <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="G10:G14"/>
-    <mergeCell ref="H10:H14"/>
-    <mergeCell ref="I10:I14"/>
     <mergeCell ref="J10:J14"/>
-    <mergeCell ref="K10:K14"/>
     <mergeCell ref="B1:F3"/>
     <mergeCell ref="H3:K3"/>
     <mergeCell ref="B4:K4"/>
@@ -1957,10 +2344,7333 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="K10:K14"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="G10:G14"/>
+    <mergeCell ref="H10:H14"/>
+    <mergeCell ref="I10:I14"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2042B8D4-ACBE-43DB-85E3-FB281508543D}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:M1001"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="2.88671875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16" style="9" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="17" style="9" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="16" style="9" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" style="9" customWidth="1"/>
+    <col min="12" max="12" width="7" style="9" customWidth="1"/>
+    <col min="13" max="26" width="10.88671875" style="9" customWidth="1"/>
+    <col min="27" max="16384" width="14.44140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="1.5" customHeight="1">
+      <c r="B1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="2:13" ht="1.5" customHeight="1">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="2:13" ht="54" customHeight="1">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="2:13" ht="45.75" customHeight="1">
+      <c r="B4" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="2:13" ht="14.4">
+      <c r="B5" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+    </row>
+    <row r="6" spans="2:13" ht="15" customHeight="1">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+    </row>
+    <row r="7" spans="2:13" ht="15" customHeight="1">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+    </row>
+    <row r="9" spans="2:13" ht="14.4">
+      <c r="B9" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="29"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="15" customHeight="1">
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" ht="14.4">
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="2:13" ht="14.4">
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="2:13" ht="14.4">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="2:13" ht="14.4">
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="2:13" ht="21" customHeight="1">
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="6">
+        <v>10</v>
+      </c>
+      <c r="F15" s="6">
+        <v>13</v>
+      </c>
+      <c r="G15" s="6">
+        <v>12</v>
+      </c>
+      <c r="H15" s="6">
+        <v>12</v>
+      </c>
+      <c r="I15" s="6">
+        <v>13</v>
+      </c>
+      <c r="J15" s="6">
+        <v>12</v>
+      </c>
+      <c r="K15" s="6">
+        <v>12</v>
+      </c>
+      <c r="L15" s="7">
+        <f>SUM(E15:K15)</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="21" customHeight="1">
+      <c r="B16" s="5">
+        <v>2</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="5">
+        <v>12</v>
+      </c>
+      <c r="F16" s="5">
+        <v>11</v>
+      </c>
+      <c r="G16" s="5">
+        <v>11</v>
+      </c>
+      <c r="H16" s="5">
+        <v>10</v>
+      </c>
+      <c r="I16" s="5">
+        <v>10</v>
+      </c>
+      <c r="J16" s="5">
+        <v>10</v>
+      </c>
+      <c r="K16" s="5">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7">
+        <f t="shared" ref="L16:L19" si="0">SUM(E16:K16)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="21" customHeight="1">
+      <c r="B17" s="5">
+        <v>3</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="6">
+        <v>13</v>
+      </c>
+      <c r="F17" s="6">
+        <v>10</v>
+      </c>
+      <c r="G17" s="6">
+        <v>13</v>
+      </c>
+      <c r="H17" s="6">
+        <v>13</v>
+      </c>
+      <c r="I17" s="6">
+        <v>11</v>
+      </c>
+      <c r="J17" s="6">
+        <v>13</v>
+      </c>
+      <c r="K17" s="6">
+        <v>13</v>
+      </c>
+      <c r="L17" s="7">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="21" customHeight="1">
+      <c r="B18" s="5">
+        <v>4</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="5">
+        <v>9</v>
+      </c>
+      <c r="F18" s="5">
+        <v>9</v>
+      </c>
+      <c r="G18" s="5">
+        <v>8</v>
+      </c>
+      <c r="H18" s="6">
+        <v>8</v>
+      </c>
+      <c r="I18" s="5">
+        <v>9</v>
+      </c>
+      <c r="J18" s="5">
+        <v>8</v>
+      </c>
+      <c r="K18" s="5">
+        <v>8</v>
+      </c>
+      <c r="L18" s="7">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="21" customHeight="1">
+      <c r="B19" s="5">
+        <v>5</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="6">
+        <v>6</v>
+      </c>
+      <c r="F19" s="6">
+        <v>7</v>
+      </c>
+      <c r="G19" s="6">
+        <v>6</v>
+      </c>
+      <c r="H19" s="6">
+        <v>7</v>
+      </c>
+      <c r="I19" s="6">
+        <v>7</v>
+      </c>
+      <c r="J19" s="6">
+        <v>7</v>
+      </c>
+      <c r="K19" s="6">
+        <v>6</v>
+      </c>
+      <c r="L19" s="7">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="21" customHeight="1">
+      <c r="B20" s="5">
+        <v>6</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="5">
+        <f>SUM(E15:E19)</f>
+        <v>50</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" ref="F20:K20" si="1">SUM(F15:F19)</f>
+        <v>50</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J20" s="5">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="K20" s="5">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="L20" s="7">
+        <f>SUM(L15:L19)</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B21" s="5">
+        <v>7</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="7"/>
+    </row>
+    <row r="22" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="23" spans="2:12" ht="15.75" customHeight="1">
+      <c r="G23" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="15.75" customHeight="1">
+      <c r="F24" s="8"/>
+      <c r="G24" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="26" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="27" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="28" spans="2:12" ht="38.25" customHeight="1"/>
+    <row r="29" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="30" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="31" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="32" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="24.75" customHeight="1"/>
+    <row r="41" ht="24.75" customHeight="1"/>
+    <row r="42" ht="24.75" customHeight="1"/>
+    <row r="43" ht="24.75" customHeight="1"/>
+    <row r="44" ht="24.75" customHeight="1"/>
+    <row r="45" ht="24.75" customHeight="1"/>
+    <row r="46" ht="27.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="L9:L14"/>
+    <mergeCell ref="E10:E14"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="G10:G14"/>
+    <mergeCell ref="H10:H14"/>
+    <mergeCell ref="I10:I14"/>
+    <mergeCell ref="J10:J14"/>
+    <mergeCell ref="K10:K14"/>
+    <mergeCell ref="B1:F3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K7"/>
+    <mergeCell ref="B9:D14"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:I9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E45CC4-9D23-4789-8459-1675D17A84D6}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:M1001"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="2.88671875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16" style="9" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="17" style="9" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="16" style="9" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" style="9" customWidth="1"/>
+    <col min="12" max="12" width="7" style="9" customWidth="1"/>
+    <col min="13" max="26" width="10.88671875" style="9" customWidth="1"/>
+    <col min="27" max="16384" width="14.44140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="1.5" customHeight="1">
+      <c r="B1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="2:13" ht="1.5" customHeight="1">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="2:13" ht="54" customHeight="1">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="2:13" ht="45.75" customHeight="1">
+      <c r="B4" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="2:13" ht="14.4">
+      <c r="B5" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+    </row>
+    <row r="6" spans="2:13" ht="15" customHeight="1">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+    </row>
+    <row r="7" spans="2:13" ht="15" customHeight="1">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+    </row>
+    <row r="9" spans="2:13" ht="14.4">
+      <c r="B9" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="29"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="15" customHeight="1">
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" ht="14.4">
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="2:13" ht="14.4">
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="2:13" ht="14.4">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="2:13" ht="14.4">
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="2:13" ht="21" customHeight="1">
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="6">
+        <v>10</v>
+      </c>
+      <c r="F15" s="6">
+        <v>13</v>
+      </c>
+      <c r="G15" s="6">
+        <v>12</v>
+      </c>
+      <c r="H15" s="6">
+        <v>12</v>
+      </c>
+      <c r="I15" s="6">
+        <v>13</v>
+      </c>
+      <c r="J15" s="6">
+        <v>12</v>
+      </c>
+      <c r="K15" s="6">
+        <v>12</v>
+      </c>
+      <c r="L15" s="7">
+        <f>SUM(E15:K15)</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="21" customHeight="1">
+      <c r="B16" s="5">
+        <v>2</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="5">
+        <v>12</v>
+      </c>
+      <c r="F16" s="5">
+        <v>11</v>
+      </c>
+      <c r="G16" s="5">
+        <v>11</v>
+      </c>
+      <c r="H16" s="5">
+        <v>10</v>
+      </c>
+      <c r="I16" s="5">
+        <v>10</v>
+      </c>
+      <c r="J16" s="5">
+        <v>10</v>
+      </c>
+      <c r="K16" s="5">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7">
+        <f t="shared" ref="L16:L19" si="0">SUM(E16:K16)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="21" customHeight="1">
+      <c r="B17" s="5">
+        <v>3</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="6">
+        <v>13</v>
+      </c>
+      <c r="F17" s="6">
+        <v>10</v>
+      </c>
+      <c r="G17" s="6">
+        <v>13</v>
+      </c>
+      <c r="H17" s="6">
+        <v>13</v>
+      </c>
+      <c r="I17" s="6">
+        <v>11</v>
+      </c>
+      <c r="J17" s="6">
+        <v>13</v>
+      </c>
+      <c r="K17" s="6">
+        <v>13</v>
+      </c>
+      <c r="L17" s="7">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="21" customHeight="1">
+      <c r="B18" s="5">
+        <v>4</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="5">
+        <v>9</v>
+      </c>
+      <c r="F18" s="5">
+        <v>9</v>
+      </c>
+      <c r="G18" s="5">
+        <v>8</v>
+      </c>
+      <c r="H18" s="6">
+        <v>8</v>
+      </c>
+      <c r="I18" s="5">
+        <v>9</v>
+      </c>
+      <c r="J18" s="5">
+        <v>8</v>
+      </c>
+      <c r="K18" s="5">
+        <v>8</v>
+      </c>
+      <c r="L18" s="7">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="21" customHeight="1">
+      <c r="B19" s="5">
+        <v>5</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="6">
+        <v>6</v>
+      </c>
+      <c r="F19" s="6">
+        <v>7</v>
+      </c>
+      <c r="G19" s="6">
+        <v>6</v>
+      </c>
+      <c r="H19" s="6">
+        <v>7</v>
+      </c>
+      <c r="I19" s="6">
+        <v>7</v>
+      </c>
+      <c r="J19" s="6">
+        <v>7</v>
+      </c>
+      <c r="K19" s="6">
+        <v>6</v>
+      </c>
+      <c r="L19" s="7">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="21" customHeight="1">
+      <c r="B20" s="5">
+        <v>6</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="5">
+        <f>SUM(E15:E19)</f>
+        <v>50</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" ref="F20:K20" si="1">SUM(F15:F19)</f>
+        <v>50</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J20" s="5">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="K20" s="5">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="L20" s="7">
+        <f>SUM(L15:L19)</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B21" s="5">
+        <v>7</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="7"/>
+    </row>
+    <row r="22" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="23" spans="2:12" ht="15.75" customHeight="1">
+      <c r="G23" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="15.75" customHeight="1">
+      <c r="F24" s="8"/>
+      <c r="G24" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="26" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="27" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="28" spans="2:12" ht="38.25" customHeight="1"/>
+    <row r="29" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="30" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="31" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="32" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="24.75" customHeight="1"/>
+    <row r="41" ht="24.75" customHeight="1"/>
+    <row r="42" ht="24.75" customHeight="1"/>
+    <row r="43" ht="24.75" customHeight="1"/>
+    <row r="44" ht="24.75" customHeight="1"/>
+    <row r="45" ht="24.75" customHeight="1"/>
+    <row r="46" ht="27.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="L9:L14"/>
+    <mergeCell ref="E10:E14"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="G10:G14"/>
+    <mergeCell ref="H10:H14"/>
+    <mergeCell ref="I10:I14"/>
+    <mergeCell ref="J10:J14"/>
+    <mergeCell ref="K10:K14"/>
+    <mergeCell ref="B1:F3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K7"/>
+    <mergeCell ref="B9:D14"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:I9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3AE1DBC-221E-405E-82A6-311191FFF107}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:M1001"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="2.88671875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16" style="9" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="17" style="9" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="16" style="9" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" style="9" customWidth="1"/>
+    <col min="12" max="12" width="7" style="9" customWidth="1"/>
+    <col min="13" max="26" width="10.88671875" style="9" customWidth="1"/>
+    <col min="27" max="16384" width="14.44140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="1.5" customHeight="1">
+      <c r="B1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="2:13" ht="1.5" customHeight="1">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="2:13" ht="54" customHeight="1">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="2:13" ht="45.75" customHeight="1">
+      <c r="B4" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="2:13" ht="14.4">
+      <c r="B5" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+    </row>
+    <row r="6" spans="2:13" ht="15" customHeight="1">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+    </row>
+    <row r="7" spans="2:13" ht="15" customHeight="1">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+    </row>
+    <row r="9" spans="2:13" ht="14.4">
+      <c r="B9" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="29"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="15" customHeight="1">
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" ht="14.4">
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="2:13" ht="14.4">
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="2:13" ht="14.4">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="2:13" ht="14.4">
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="2:13" ht="21" customHeight="1">
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="6">
+        <v>10</v>
+      </c>
+      <c r="F15" s="6">
+        <v>13</v>
+      </c>
+      <c r="G15" s="6">
+        <v>12</v>
+      </c>
+      <c r="H15" s="6">
+        <v>12</v>
+      </c>
+      <c r="I15" s="6">
+        <v>13</v>
+      </c>
+      <c r="J15" s="6">
+        <v>12</v>
+      </c>
+      <c r="K15" s="6">
+        <v>12</v>
+      </c>
+      <c r="L15" s="7">
+        <f>SUM(E15:K15)</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="21" customHeight="1">
+      <c r="B16" s="5">
+        <v>2</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="5">
+        <v>12</v>
+      </c>
+      <c r="F16" s="5">
+        <v>11</v>
+      </c>
+      <c r="G16" s="5">
+        <v>11</v>
+      </c>
+      <c r="H16" s="5">
+        <v>10</v>
+      </c>
+      <c r="I16" s="5">
+        <v>10</v>
+      </c>
+      <c r="J16" s="5">
+        <v>10</v>
+      </c>
+      <c r="K16" s="5">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7">
+        <f t="shared" ref="L16:L19" si="0">SUM(E16:K16)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="21" customHeight="1">
+      <c r="B17" s="5">
+        <v>3</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="6">
+        <v>13</v>
+      </c>
+      <c r="F17" s="6">
+        <v>10</v>
+      </c>
+      <c r="G17" s="6">
+        <v>13</v>
+      </c>
+      <c r="H17" s="6">
+        <v>13</v>
+      </c>
+      <c r="I17" s="6">
+        <v>11</v>
+      </c>
+      <c r="J17" s="6">
+        <v>13</v>
+      </c>
+      <c r="K17" s="6">
+        <v>13</v>
+      </c>
+      <c r="L17" s="7">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="21" customHeight="1">
+      <c r="B18" s="5">
+        <v>4</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="5">
+        <v>9</v>
+      </c>
+      <c r="F18" s="5">
+        <v>9</v>
+      </c>
+      <c r="G18" s="5">
+        <v>8</v>
+      </c>
+      <c r="H18" s="6">
+        <v>8</v>
+      </c>
+      <c r="I18" s="5">
+        <v>9</v>
+      </c>
+      <c r="J18" s="5">
+        <v>8</v>
+      </c>
+      <c r="K18" s="5">
+        <v>8</v>
+      </c>
+      <c r="L18" s="7">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="21" customHeight="1">
+      <c r="B19" s="5">
+        <v>5</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="6">
+        <v>6</v>
+      </c>
+      <c r="F19" s="6">
+        <v>7</v>
+      </c>
+      <c r="G19" s="6">
+        <v>6</v>
+      </c>
+      <c r="H19" s="6">
+        <v>7</v>
+      </c>
+      <c r="I19" s="6">
+        <v>7</v>
+      </c>
+      <c r="J19" s="6">
+        <v>7</v>
+      </c>
+      <c r="K19" s="6">
+        <v>6</v>
+      </c>
+      <c r="L19" s="7">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="21" customHeight="1">
+      <c r="B20" s="5">
+        <v>6</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="5">
+        <f>SUM(E15:E19)</f>
+        <v>50</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" ref="F20:K20" si="1">SUM(F15:F19)</f>
+        <v>50</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J20" s="5">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="K20" s="5">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="L20" s="7">
+        <f>SUM(L15:L19)</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B21" s="5">
+        <v>7</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="7"/>
+    </row>
+    <row r="22" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="23" spans="2:12" ht="15.75" customHeight="1">
+      <c r="G23" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="15.75" customHeight="1">
+      <c r="F24" s="8"/>
+      <c r="G24" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="26" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="27" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="28" spans="2:12" ht="38.25" customHeight="1"/>
+    <row r="29" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="30" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="31" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="32" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="24.75" customHeight="1"/>
+    <row r="41" ht="24.75" customHeight="1"/>
+    <row r="42" ht="24.75" customHeight="1"/>
+    <row r="43" ht="24.75" customHeight="1"/>
+    <row r="44" ht="24.75" customHeight="1"/>
+    <row r="45" ht="24.75" customHeight="1"/>
+    <row r="46" ht="27.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="L9:L14"/>
+    <mergeCell ref="E10:E14"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="G10:G14"/>
+    <mergeCell ref="H10:H14"/>
+    <mergeCell ref="I10:I14"/>
+    <mergeCell ref="J10:J14"/>
+    <mergeCell ref="K10:K14"/>
+    <mergeCell ref="B1:F3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K7"/>
+    <mergeCell ref="B9:D14"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:I9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89DC725F-AED4-435D-9651-61B7EBE3C276}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:M1001"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="2.88671875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16" style="9" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="17" style="9" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="16" style="9" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" style="9" customWidth="1"/>
+    <col min="12" max="12" width="7" style="9" customWidth="1"/>
+    <col min="13" max="26" width="10.88671875" style="9" customWidth="1"/>
+    <col min="27" max="16384" width="14.44140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="1.5" customHeight="1">
+      <c r="B1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="2:13" ht="1.5" customHeight="1">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="2:13" ht="54" customHeight="1">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="2:13" ht="45.75" customHeight="1">
+      <c r="B4" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="2:13" ht="14.4">
+      <c r="B5" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+    </row>
+    <row r="6" spans="2:13" ht="15" customHeight="1">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+    </row>
+    <row r="7" spans="2:13" ht="15" customHeight="1">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+    </row>
+    <row r="9" spans="2:13" ht="14.4">
+      <c r="B9" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="29"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="15" customHeight="1">
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" ht="14.4">
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="2:13" ht="14.4">
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="2:13" ht="14.4">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="2:13" ht="14.4">
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="2:13" ht="21" customHeight="1">
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="6">
+        <v>10</v>
+      </c>
+      <c r="F15" s="6">
+        <v>13</v>
+      </c>
+      <c r="G15" s="6">
+        <v>12</v>
+      </c>
+      <c r="H15" s="6">
+        <v>12</v>
+      </c>
+      <c r="I15" s="6">
+        <v>13</v>
+      </c>
+      <c r="J15" s="6">
+        <v>12</v>
+      </c>
+      <c r="K15" s="6">
+        <v>12</v>
+      </c>
+      <c r="L15" s="7">
+        <f>SUM(E15:K15)</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="21" customHeight="1">
+      <c r="B16" s="5">
+        <v>2</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="5">
+        <v>12</v>
+      </c>
+      <c r="F16" s="5">
+        <v>11</v>
+      </c>
+      <c r="G16" s="5">
+        <v>11</v>
+      </c>
+      <c r="H16" s="5">
+        <v>10</v>
+      </c>
+      <c r="I16" s="5">
+        <v>10</v>
+      </c>
+      <c r="J16" s="5">
+        <v>10</v>
+      </c>
+      <c r="K16" s="5">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7">
+        <f t="shared" ref="L16:L19" si="0">SUM(E16:K16)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="21" customHeight="1">
+      <c r="B17" s="5">
+        <v>3</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="6">
+        <v>13</v>
+      </c>
+      <c r="F17" s="6">
+        <v>10</v>
+      </c>
+      <c r="G17" s="6">
+        <v>13</v>
+      </c>
+      <c r="H17" s="6">
+        <v>13</v>
+      </c>
+      <c r="I17" s="6">
+        <v>11</v>
+      </c>
+      <c r="J17" s="6">
+        <v>13</v>
+      </c>
+      <c r="K17" s="6">
+        <v>13</v>
+      </c>
+      <c r="L17" s="7">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="21" customHeight="1">
+      <c r="B18" s="5">
+        <v>4</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="5">
+        <v>9</v>
+      </c>
+      <c r="F18" s="5">
+        <v>9</v>
+      </c>
+      <c r="G18" s="5">
+        <v>8</v>
+      </c>
+      <c r="H18" s="6">
+        <v>8</v>
+      </c>
+      <c r="I18" s="5">
+        <v>9</v>
+      </c>
+      <c r="J18" s="5">
+        <v>8</v>
+      </c>
+      <c r="K18" s="5">
+        <v>8</v>
+      </c>
+      <c r="L18" s="7">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="21" customHeight="1">
+      <c r="B19" s="5">
+        <v>5</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="6">
+        <v>6</v>
+      </c>
+      <c r="F19" s="6">
+        <v>7</v>
+      </c>
+      <c r="G19" s="6">
+        <v>6</v>
+      </c>
+      <c r="H19" s="6">
+        <v>7</v>
+      </c>
+      <c r="I19" s="6">
+        <v>7</v>
+      </c>
+      <c r="J19" s="6">
+        <v>7</v>
+      </c>
+      <c r="K19" s="6">
+        <v>6</v>
+      </c>
+      <c r="L19" s="7">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="21" customHeight="1">
+      <c r="B20" s="5">
+        <v>6</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="5">
+        <f>SUM(E15:E19)</f>
+        <v>50</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" ref="F20:K20" si="1">SUM(F15:F19)</f>
+        <v>50</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J20" s="5">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="K20" s="5">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="L20" s="7">
+        <f>SUM(L15:L19)</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B21" s="5">
+        <v>7</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="7"/>
+    </row>
+    <row r="22" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="23" spans="2:12" ht="15.75" customHeight="1">
+      <c r="G23" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="15.75" customHeight="1">
+      <c r="F24" s="8"/>
+      <c r="G24" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="26" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="27" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="28" spans="2:12" ht="38.25" customHeight="1"/>
+    <row r="29" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="30" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="31" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="32" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="24.75" customHeight="1"/>
+    <row r="41" ht="24.75" customHeight="1"/>
+    <row r="42" ht="24.75" customHeight="1"/>
+    <row r="43" ht="24.75" customHeight="1"/>
+    <row r="44" ht="24.75" customHeight="1"/>
+    <row r="45" ht="24.75" customHeight="1"/>
+    <row r="46" ht="27.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="L9:L14"/>
+    <mergeCell ref="E10:E14"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="G10:G14"/>
+    <mergeCell ref="H10:H14"/>
+    <mergeCell ref="I10:I14"/>
+    <mergeCell ref="J10:J14"/>
+    <mergeCell ref="K10:K14"/>
+    <mergeCell ref="B1:F3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K7"/>
+    <mergeCell ref="B9:D14"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:I9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9FE1E02-5B43-44EC-A241-F11F5F0E73A7}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:M1001"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="2.88671875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16" style="9" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="17" style="9" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="16" style="9" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" style="9" customWidth="1"/>
+    <col min="12" max="12" width="7" style="9" customWidth="1"/>
+    <col min="13" max="26" width="10.88671875" style="9" customWidth="1"/>
+    <col min="27" max="16384" width="14.44140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="1.5" customHeight="1">
+      <c r="B1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="2:13" ht="1.5" customHeight="1">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="2:13" ht="54" customHeight="1">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="2:13" ht="45.75" customHeight="1">
+      <c r="B4" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="2:13" ht="14.4">
+      <c r="B5" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+    </row>
+    <row r="6" spans="2:13" ht="15" customHeight="1">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+    </row>
+    <row r="7" spans="2:13" ht="15" customHeight="1">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+    </row>
+    <row r="9" spans="2:13" ht="14.4">
+      <c r="B9" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="29"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="15" customHeight="1">
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" ht="14.4">
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="2:13" ht="14.4">
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="2:13" ht="14.4">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="2:13" ht="14.4">
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="2:13" ht="21" customHeight="1">
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="6">
+        <v>10</v>
+      </c>
+      <c r="F15" s="6">
+        <v>13</v>
+      </c>
+      <c r="G15" s="6">
+        <v>12</v>
+      </c>
+      <c r="H15" s="6">
+        <v>12</v>
+      </c>
+      <c r="I15" s="6">
+        <v>13</v>
+      </c>
+      <c r="J15" s="6">
+        <v>12</v>
+      </c>
+      <c r="K15" s="6">
+        <v>12</v>
+      </c>
+      <c r="L15" s="7">
+        <f>SUM(E15:K15)</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="21" customHeight="1">
+      <c r="B16" s="5">
+        <v>2</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="5">
+        <v>12</v>
+      </c>
+      <c r="F16" s="5">
+        <v>11</v>
+      </c>
+      <c r="G16" s="5">
+        <v>11</v>
+      </c>
+      <c r="H16" s="5">
+        <v>10</v>
+      </c>
+      <c r="I16" s="5">
+        <v>10</v>
+      </c>
+      <c r="J16" s="5">
+        <v>10</v>
+      </c>
+      <c r="K16" s="5">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7">
+        <f t="shared" ref="L16:L19" si="0">SUM(E16:K16)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="21" customHeight="1">
+      <c r="B17" s="5">
+        <v>3</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="6">
+        <v>13</v>
+      </c>
+      <c r="F17" s="6">
+        <v>10</v>
+      </c>
+      <c r="G17" s="6">
+        <v>13</v>
+      </c>
+      <c r="H17" s="6">
+        <v>13</v>
+      </c>
+      <c r="I17" s="6">
+        <v>11</v>
+      </c>
+      <c r="J17" s="6">
+        <v>13</v>
+      </c>
+      <c r="K17" s="6">
+        <v>13</v>
+      </c>
+      <c r="L17" s="7">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="21" customHeight="1">
+      <c r="B18" s="5">
+        <v>4</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="5">
+        <v>9</v>
+      </c>
+      <c r="F18" s="5">
+        <v>9</v>
+      </c>
+      <c r="G18" s="5">
+        <v>8</v>
+      </c>
+      <c r="H18" s="6">
+        <v>8</v>
+      </c>
+      <c r="I18" s="5">
+        <v>9</v>
+      </c>
+      <c r="J18" s="5">
+        <v>8</v>
+      </c>
+      <c r="K18" s="5">
+        <v>8</v>
+      </c>
+      <c r="L18" s="7">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="21" customHeight="1">
+      <c r="B19" s="5">
+        <v>5</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="6">
+        <v>6</v>
+      </c>
+      <c r="F19" s="6">
+        <v>7</v>
+      </c>
+      <c r="G19" s="6">
+        <v>6</v>
+      </c>
+      <c r="H19" s="6">
+        <v>7</v>
+      </c>
+      <c r="I19" s="6">
+        <v>7</v>
+      </c>
+      <c r="J19" s="6">
+        <v>7</v>
+      </c>
+      <c r="K19" s="6">
+        <v>6</v>
+      </c>
+      <c r="L19" s="7">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="21" customHeight="1">
+      <c r="B20" s="5">
+        <v>6</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="5">
+        <f>SUM(E15:E19)</f>
+        <v>50</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" ref="F20:K20" si="1">SUM(F15:F19)</f>
+        <v>50</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J20" s="5">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="K20" s="5">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="L20" s="7">
+        <f>SUM(L15:L19)</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B21" s="5">
+        <v>7</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="7"/>
+    </row>
+    <row r="22" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="23" spans="2:12" ht="15.75" customHeight="1">
+      <c r="G23" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="15.75" customHeight="1">
+      <c r="F24" s="8"/>
+      <c r="G24" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="26" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="27" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="28" spans="2:12" ht="38.25" customHeight="1"/>
+    <row r="29" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="30" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="31" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="32" spans="2:12" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="24.75" customHeight="1"/>
+    <row r="41" ht="24.75" customHeight="1"/>
+    <row r="42" ht="24.75" customHeight="1"/>
+    <row r="43" ht="24.75" customHeight="1"/>
+    <row r="44" ht="24.75" customHeight="1"/>
+    <row r="45" ht="24.75" customHeight="1"/>
+    <row r="46" ht="27.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="L9:L14"/>
+    <mergeCell ref="E10:E14"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="G10:G14"/>
+    <mergeCell ref="H10:H14"/>
+    <mergeCell ref="I10:I14"/>
+    <mergeCell ref="J10:J14"/>
+    <mergeCell ref="K10:K14"/>
+    <mergeCell ref="B1:F3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K7"/>
+    <mergeCell ref="B9:D14"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:I9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/EQUIPO 1-COEVALUACIÓN 1P.xlsx
+++ b/EQUIPO 1-COEVALUACIÓN 1P.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Desktop\UTCV\5to\Proyecto\Bitacora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2ADE41-24C6-4704-84C4-23299F0A4B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F94E32D-CC12-4E87-8C3B-A632C1190B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coevaluación" sheetId="1" r:id="rId1"/>
@@ -31,15 +31,12 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="ohEwZsFiUArpblWU3gA128/1+4uSXhSLtOndE/wIQCA="/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="39">
   <si>
     <t>TI EN INFRAESTRUCTURA DE REDES DIGITALES</t>
   </si>
@@ -176,55 +173,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Nombre: _Peralta_Garcia_Fatima___________________
-Parcial: _____1P________      Cuatrimestre: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>___5to______</t>
-    </r>
-  </si>
-  <si>
     <t>Arenas Lopez Alejandro</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Nombre: _Monraga_Contreras_Zahid___________________
-Parcial: _____1P________      Cuatrimestre: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>___5to______</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Nombre: _Hernandez_Torres_Jesus_Aldahir___________
-Parcial: _____1P________      Cuatrimestre: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>___5to______</t>
-    </r>
   </si>
   <si>
     <r>
@@ -268,17 +217,149 @@
     <t xml:space="preserve">         Peralta Garcia Fatima</t>
   </si>
   <si>
-    <t xml:space="preserve">         Hernandez Torres Jesus Aldahir</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Nombre: _Monraga_Contreras_Zahid___________________
+Parcial: _____1P________      Cuatrimestre: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>___5to______</t>
+    </r>
   </si>
   <si>
-    <t xml:space="preserve">        Torres Martinez Jesus Hernesto</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Objetivo:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> La presente evaluación tiene como fin calificar la participación de cada uni de los integrantes de tu equipo de trabajo para el desarrollo de tu proyecto de Investigación.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Instrucción:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Coloca el nombre de tus compañeros de equipo en cada una de las celdas e indica el número que evalue el desempeño de cada uno en las diferentes categorias. Para asignar el número toma en cuenta los siguientes criterios: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Tienes que repartir (n-1)*10 puntos, donde n es el número de integrantes, no puedes repetir puntuaciones en un mismo criterio y es muy importante que tu coevaluación sea objetiva e imparcial.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Nombre: _Jesus Aldahir Hernandez Torres_______________
+Parcial: ________1ero_______      Cuatrimestre: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>______5to______</t>
+    </r>
+  </si>
+  <si>
+    <t>Torres Martinez Jesus Ernesto</t>
+  </si>
+  <si>
+    <t>Hernandez Torres</t>
+  </si>
+  <si>
+    <t>Jesus Aldahir</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Nombre: _Peralta_Garcia_Fatima___________________
+Parcial: _____1P________      Cuatrimestre: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>___5to______</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        Torres Martinez Jesus Ernesto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,6 +427,91 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="14">
@@ -606,10 +772,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -628,6 +795,69 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -657,6 +887,12 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -673,15 +909,118 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{396A10B6-97FE-4C3A-BD79-6F83F4C69869}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -899,8 +1238,8 @@
   </sheetPr>
   <dimension ref="B1:M1001"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:D16"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -921,200 +1260,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="1.5" customHeight="1">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
     </row>
     <row r="2" spans="2:13" ht="1.5" customHeight="1">
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="2:13" ht="54" customHeight="1">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="14"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="47"/>
     </row>
     <row r="4" spans="2:13" ht="45.75" customHeight="1">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="2:13" ht="14.4">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
     </row>
     <row r="7" spans="2:13" ht="15" customHeight="1">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
     </row>
     <row r="9" spans="2:13" ht="14.4">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="31" t="s">
+      <c r="C9" s="49"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="32" t="s">
+      <c r="F9" s="47"/>
+      <c r="G9" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="14"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="47"/>
       <c r="J9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="L9" s="43" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1">
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="25" t="s">
+      <c r="B10" s="52"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="33" t="s">
+      <c r="I10" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="34" t="s">
+      <c r="J10" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="26" t="s">
+      <c r="K10" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="11"/>
+      <c r="L10" s="44"/>
     </row>
     <row r="11" spans="2:13" ht="14.4">
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
     </row>
     <row r="12" spans="2:13" ht="14.4">
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
     </row>
     <row r="13" spans="2:13" ht="14.4">
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
     </row>
     <row r="14" spans="2:13" ht="14.4">
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
     </row>
     <row r="15" spans="2:13" ht="21" customHeight="1">
       <c r="B15" s="5">
         <v>1</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="14"/>
+      <c r="D15" s="47"/>
       <c r="E15" s="6">
         <v>10</v>
       </c>
@@ -1145,10 +1484,10 @@
       <c r="B16" s="5">
         <v>2</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="14"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="5">
         <v>12</v>
       </c>
@@ -1179,10 +1518,10 @@
       <c r="B17" s="5">
         <v>3</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="14"/>
+      <c r="D17" s="47"/>
       <c r="E17" s="6">
         <v>13</v>
       </c>
@@ -1213,10 +1552,10 @@
       <c r="B18" s="5">
         <v>4</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="14"/>
+      <c r="D18" s="47"/>
       <c r="E18" s="5">
         <v>9</v>
       </c>
@@ -1247,10 +1586,10 @@
       <c r="B19" s="5">
         <v>5</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="14"/>
+      <c r="D19" s="47"/>
       <c r="E19" s="6">
         <v>6</v>
       </c>
@@ -1281,57 +1620,57 @@
       <c r="B20" s="5">
         <v>6</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="5">
-        <f>SUM(E15:E19)</f>
-        <v>50</v>
-      </c>
-      <c r="F20" s="5">
-        <f t="shared" ref="F20:K20" si="1">SUM(F15:F19)</f>
-        <v>50</v>
-      </c>
-      <c r="G20" s="5">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="H20" s="5">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="I20" s="5">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="J20" s="5">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="K20" s="5">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="L20" s="7">
-        <f>SUM(L15:L19)</f>
-        <v>350</v>
-      </c>
+      <c r="C20" s="46"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="7"/>
     </row>
     <row r="21" spans="2:12" ht="21.75" customHeight="1">
       <c r="B21" s="5">
         <v>7</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="7"/>
+      <c r="C21" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="47"/>
+      <c r="E21" s="6">
+        <f>SUM(E15:E19)</f>
+        <v>50</v>
+      </c>
+      <c r="F21" s="32">
+        <f t="shared" ref="F21:K21" si="1">SUM(F15:F19)</f>
+        <v>50</v>
+      </c>
+      <c r="G21" s="32">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="H21" s="32">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="I21" s="32">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J21" s="32">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="K21" s="32">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="L21" s="7">
+        <f>SUM(L15:L19)</f>
+        <v>350</v>
+      </c>
     </row>
     <row r="22" spans="2:12" ht="15.75" customHeight="1"/>
     <row r="23" spans="2:12" ht="15.75" customHeight="1">
@@ -1341,10 +1680,10 @@
     </row>
     <row r="24" spans="2:12" ht="15.75" customHeight="1">
       <c r="F24" s="8"/>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="16"/>
+      <c r="H24" s="49"/>
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="2:12" ht="15.75" customHeight="1"/>
@@ -2360,10 +2699,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:M1001"/>
+  <dimension ref="A1:M1001"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:D15"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2384,441 +2723,524 @@
     <col min="27" max="16384" width="14.44140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="1.5" customHeight="1">
-      <c r="B1" s="27" t="s">
+    <row r="1" spans="1:13" ht="1.5" customHeight="1">
+      <c r="A1" s="18"/>
+      <c r="B1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-    </row>
-    <row r="2" spans="2:13" ht="1.5" customHeight="1">
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-    </row>
-    <row r="3" spans="2:13" ht="54" customHeight="1">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="14"/>
-    </row>
-    <row r="4" spans="2:13" ht="45.75" customHeight="1">
-      <c r="B4" s="30" t="s">
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+    </row>
+    <row r="2" spans="1:13" ht="1.5" customHeight="1">
+      <c r="A2" s="18"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+    </row>
+    <row r="3" spans="1:13" ht="54" customHeight="1">
+      <c r="A3" s="18"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="35"/>
+    </row>
+    <row r="4" spans="1:13" ht="45.75" customHeight="1">
+      <c r="A4" s="18"/>
+      <c r="B4" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="35"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="2:13" ht="14.4">
-      <c r="B5" s="30" t="s">
+    <row r="5" spans="1:13" ht="14.4" customHeight="1">
+      <c r="A5" s="18"/>
+      <c r="B5" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-    </row>
-    <row r="6" spans="2:13" ht="15" customHeight="1">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-    </row>
-    <row r="7" spans="2:13" ht="15" customHeight="1">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-    </row>
-    <row r="9" spans="2:13" ht="14.4">
-      <c r="B9" s="17" t="s">
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="35"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1">
+      <c r="A6" s="18"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="35"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1">
+      <c r="A7" s="18"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="35"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" spans="1:13" ht="14.4">
+      <c r="A9" s="18"/>
+      <c r="B9" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="31" t="s">
+      <c r="C9" s="49"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="32" t="s">
+      <c r="F9" s="47"/>
+      <c r="G9" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="3" t="s">
+      <c r="H9" s="64"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="L9" s="43" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="15" customHeight="1">
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="25" t="s">
+    <row r="10" spans="1:13" ht="15" customHeight="1">
+      <c r="A10" s="18"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="33" t="s">
+      <c r="I10" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="34" t="s">
+      <c r="J10" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="26" t="s">
+      <c r="K10" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" ht="14.4">
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-    </row>
-    <row r="12" spans="2:13" ht="14.4">
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-    </row>
-    <row r="13" spans="2:13" ht="14.4">
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-    </row>
-    <row r="14" spans="2:13" ht="14.4">
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-    </row>
-    <row r="15" spans="2:13" ht="21" customHeight="1">
-      <c r="B15" s="5">
+      <c r="L10" s="44"/>
+    </row>
+    <row r="11" spans="1:13" ht="14.4">
+      <c r="A11" s="18"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+    </row>
+    <row r="12" spans="1:13" ht="14.4">
+      <c r="A12" s="18"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+    </row>
+    <row r="13" spans="1:13" ht="14.4">
+      <c r="A13" s="18"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+    </row>
+    <row r="14" spans="1:13" ht="14.4">
+      <c r="A14" s="18"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+    </row>
+    <row r="15" spans="1:13" ht="21" customHeight="1">
+      <c r="A15" s="18"/>
+      <c r="B15" s="39">
         <v>1</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="6">
+      <c r="D15" s="47"/>
+      <c r="E15" s="40">
+        <v>12</v>
+      </c>
+      <c r="F15" s="40">
+        <v>16</v>
+      </c>
+      <c r="G15" s="40">
+        <v>11</v>
+      </c>
+      <c r="H15" s="40">
+        <v>14</v>
+      </c>
+      <c r="I15" s="40">
+        <v>12</v>
+      </c>
+      <c r="J15" s="40">
+        <v>13</v>
+      </c>
+      <c r="K15" s="40">
+        <v>14</v>
+      </c>
+      <c r="L15" s="41">
+        <f>SUM(E15:K15)</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="21" customHeight="1">
+      <c r="A16" s="18"/>
+      <c r="B16" s="39">
+        <v>2</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="47"/>
+      <c r="E16" s="39">
+        <v>15</v>
+      </c>
+      <c r="F16" s="39">
         <v>10</v>
       </c>
-      <c r="F15" s="6">
+      <c r="G16" s="39">
+        <v>9</v>
+      </c>
+      <c r="H16" s="39">
+        <v>8</v>
+      </c>
+      <c r="I16" s="39">
+        <v>11</v>
+      </c>
+      <c r="J16" s="39">
+        <v>12</v>
+      </c>
+      <c r="K16" s="39">
+        <v>11</v>
+      </c>
+      <c r="L16" s="41">
+        <f t="shared" ref="L16:L19" si="0">SUM(E16:K16)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="21" customHeight="1">
+      <c r="A17" s="18"/>
+      <c r="B17" s="39">
+        <v>3</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="47"/>
+      <c r="E17" s="40">
+        <v>14</v>
+      </c>
+      <c r="F17" s="40">
+        <v>8</v>
+      </c>
+      <c r="G17" s="40">
+        <v>17</v>
+      </c>
+      <c r="H17" s="40">
         <v>13</v>
       </c>
-      <c r="G15" s="6">
+      <c r="I17" s="40">
+        <v>10</v>
+      </c>
+      <c r="J17" s="40">
+        <v>9</v>
+      </c>
+      <c r="K17" s="40">
         <v>12</v>
       </c>
-      <c r="H15" s="6">
-        <v>12</v>
-      </c>
-      <c r="I15" s="6">
+      <c r="L17" s="41">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="21" customHeight="1">
+      <c r="A18" s="18"/>
+      <c r="B18" s="39">
+        <v>4</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="47"/>
+      <c r="E18" s="39">
+        <v>3</v>
+      </c>
+      <c r="F18" s="39">
         <v>13</v>
       </c>
-      <c r="J15" s="6">
-        <v>12</v>
-      </c>
-      <c r="K15" s="6">
-        <v>12</v>
-      </c>
-      <c r="L15" s="7">
-        <f>SUM(E15:K15)</f>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="21" customHeight="1">
-      <c r="B16" s="5">
-        <v>2</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="5">
-        <v>12</v>
-      </c>
-      <c r="F16" s="5">
-        <v>11</v>
-      </c>
-      <c r="G16" s="5">
-        <v>11</v>
-      </c>
-      <c r="H16" s="5">
-        <v>10</v>
-      </c>
-      <c r="I16" s="5">
-        <v>10</v>
-      </c>
-      <c r="J16" s="5">
-        <v>10</v>
-      </c>
-      <c r="K16" s="5">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7">
-        <f t="shared" ref="L16:L19" si="0">SUM(E16:K16)</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="21" customHeight="1">
-      <c r="B17" s="5">
+      <c r="G18" s="39">
+        <v>8</v>
+      </c>
+      <c r="H18" s="40">
+        <v>6</v>
+      </c>
+      <c r="I18" s="39">
+        <v>9</v>
+      </c>
+      <c r="J18" s="39">
+        <v>7</v>
+      </c>
+      <c r="K18" s="39">
+        <v>7</v>
+      </c>
+      <c r="L18" s="41">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="21" customHeight="1">
+      <c r="A19" s="18"/>
+      <c r="B19" s="39">
+        <v>5</v>
+      </c>
+      <c r="C19" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="47"/>
+      <c r="E19" s="40">
+        <v>6</v>
+      </c>
+      <c r="F19" s="40">
         <v>3</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="6">
-        <v>13</v>
-      </c>
-      <c r="F17" s="6">
-        <v>10</v>
-      </c>
-      <c r="G17" s="6">
-        <v>13</v>
-      </c>
-      <c r="H17" s="6">
-        <v>13</v>
-      </c>
-      <c r="I17" s="6">
-        <v>11</v>
-      </c>
-      <c r="J17" s="6">
-        <v>13</v>
-      </c>
-      <c r="K17" s="6">
-        <v>13</v>
-      </c>
-      <c r="L17" s="7">
-        <f t="shared" si="0"/>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="21" customHeight="1">
-      <c r="B18" s="5">
-        <v>4</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="5">
+      <c r="G19" s="40">
+        <v>5</v>
+      </c>
+      <c r="H19" s="40">
         <v>9</v>
       </c>
-      <c r="F18" s="5">
+      <c r="I19" s="40">
+        <v>8</v>
+      </c>
+      <c r="J19" s="40">
         <v>9</v>
       </c>
-      <c r="G18" s="5">
-        <v>8</v>
-      </c>
-      <c r="H18" s="6">
-        <v>8</v>
-      </c>
-      <c r="I18" s="5">
-        <v>9</v>
-      </c>
-      <c r="J18" s="5">
-        <v>8</v>
-      </c>
-      <c r="K18" s="5">
-        <v>8</v>
-      </c>
-      <c r="L18" s="7">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="21" customHeight="1">
-      <c r="B19" s="5">
-        <v>5</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="6">
+      <c r="K19" s="40">
         <v>6</v>
       </c>
-      <c r="F19" s="6">
-        <v>7</v>
-      </c>
-      <c r="G19" s="6">
-        <v>6</v>
-      </c>
-      <c r="H19" s="6">
-        <v>7</v>
-      </c>
-      <c r="I19" s="6">
-        <v>7</v>
-      </c>
-      <c r="J19" s="6">
-        <v>7</v>
-      </c>
-      <c r="K19" s="6">
-        <v>6</v>
-      </c>
-      <c r="L19" s="7">
+      <c r="L19" s="41">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="21" customHeight="1">
-      <c r="B20" s="5">
+    <row r="20" spans="1:12" ht="21" customHeight="1">
+      <c r="A20" s="18"/>
+      <c r="B20" s="39">
         <v>6</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="46"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="41"/>
+    </row>
+    <row r="21" spans="1:12" ht="21.75" customHeight="1">
+      <c r="A21" s="18"/>
+      <c r="B21" s="39">
+        <v>7</v>
+      </c>
+      <c r="C21" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="5">
+      <c r="D21" s="47"/>
+      <c r="E21" s="40">
         <f>SUM(E15:E19)</f>
         <v>50</v>
       </c>
-      <c r="F20" s="5">
-        <f t="shared" ref="F20:K20" si="1">SUM(F15:F19)</f>
+      <c r="F21" s="40">
+        <f t="shared" ref="F21:K21" si="1">SUM(F15:F19)</f>
         <v>50</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G21" s="40">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H21" s="40">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I21" s="40">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J21" s="40">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K21" s="40">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L21" s="41">
         <f>SUM(L15:L19)</f>
         <v>350</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B21" s="5">
-        <v>7</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="7"/>
-    </row>
-    <row r="22" spans="2:12" ht="15.75" customHeight="1"/>
-    <row r="23" spans="2:12" ht="15.75" customHeight="1">
-      <c r="G23" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="15.75" customHeight="1">
-      <c r="F24" s="8"/>
-      <c r="G24" s="15" t="s">
+    <row r="22" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A22" s="18"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A23" s="18"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A24" s="18"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="25" spans="2:12" ht="15.75" customHeight="1"/>
-    <row r="26" spans="2:12" ht="15.75" customHeight="1"/>
-    <row r="27" spans="2:12" ht="15.75" customHeight="1"/>
-    <row r="28" spans="2:12" ht="38.25" customHeight="1"/>
-    <row r="29" spans="2:12" ht="15.75" customHeight="1"/>
-    <row r="30" spans="2:12" ht="15.75" customHeight="1"/>
-    <row r="31" spans="2:12" ht="15.75" customHeight="1"/>
-    <row r="32" spans="2:12" ht="15.75" customHeight="1"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:12" ht="38.25" customHeight="1"/>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -3790,6 +4212,9 @@
     <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B1:F3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L9:L14"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="C15:D15"/>
@@ -3798,7 +4223,11 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="L9:L14"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K7"/>
+    <mergeCell ref="B9:D14"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:I9"/>
     <mergeCell ref="E10:E14"/>
     <mergeCell ref="F10:F14"/>
     <mergeCell ref="G10:G14"/>
@@ -3806,13 +4235,6 @@
     <mergeCell ref="I10:I14"/>
     <mergeCell ref="J10:J14"/>
     <mergeCell ref="K10:K14"/>
-    <mergeCell ref="B1:F3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K7"/>
-    <mergeCell ref="B9:D14"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -3824,10 +4246,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:M1001"/>
+  <dimension ref="A1:M1001"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:D17"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -3848,441 +4270,524 @@
     <col min="27" max="16384" width="14.44140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="1.5" customHeight="1">
-      <c r="B1" s="27" t="s">
+    <row r="1" spans="1:13" ht="1.5" customHeight="1">
+      <c r="A1" s="19"/>
+      <c r="B1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-    </row>
-    <row r="2" spans="2:13" ht="1.5" customHeight="1">
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-    </row>
-    <row r="3" spans="2:13" ht="54" customHeight="1">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="28" t="s">
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+    </row>
+    <row r="2" spans="1:13" ht="1.5" customHeight="1">
+      <c r="A2" s="19"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+    </row>
+    <row r="3" spans="1:13" ht="54" customHeight="1">
+      <c r="A3" s="19"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="19"/>
+    </row>
+    <row r="4" spans="1:13" ht="45.75" customHeight="1">
+      <c r="A4" s="19"/>
+      <c r="B4" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" ht="14.4" customHeight="1">
+      <c r="A5" s="19"/>
+      <c r="B5" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="19"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1">
+      <c r="A6" s="19"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="19"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1">
+      <c r="A7" s="19"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="19"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+    </row>
+    <row r="9" spans="1:13" ht="14.4">
+      <c r="A9" s="19"/>
+      <c r="B9" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="76"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="73"/>
+      <c r="G9" s="84" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="72"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="85" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1">
+      <c r="A10" s="19"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="88" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="89" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="90" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="91" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="86"/>
+    </row>
+    <row r="11" spans="1:13" ht="14.4">
+      <c r="A11" s="19"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+    </row>
+    <row r="12" spans="1:13" ht="14.4">
+      <c r="A12" s="19"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
+    </row>
+    <row r="13" spans="1:13" ht="14.4">
+      <c r="A13" s="19"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="86"/>
+    </row>
+    <row r="14" spans="1:13" ht="14.4">
+      <c r="A14" s="19"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="87"/>
+    </row>
+    <row r="15" spans="1:13" ht="21" customHeight="1">
+      <c r="A15" s="19"/>
+      <c r="B15" s="24">
+        <v>1</v>
+      </c>
+      <c r="C15" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="14"/>
-    </row>
-    <row r="4" spans="2:13" ht="45.75" customHeight="1">
-      <c r="B4" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="2:13" ht="14.4">
-      <c r="B5" s="30" t="s">
+      <c r="D15" s="73"/>
+      <c r="E15" s="25">
+        <v>10</v>
+      </c>
+      <c r="F15" s="25">
+        <v>13</v>
+      </c>
+      <c r="G15" s="25">
+        <v>12</v>
+      </c>
+      <c r="H15" s="25">
+        <v>12</v>
+      </c>
+      <c r="I15" s="25">
+        <v>12</v>
+      </c>
+      <c r="J15" s="25">
+        <v>12</v>
+      </c>
+      <c r="K15" s="25">
+        <v>12</v>
+      </c>
+      <c r="L15" s="33">
+        <f>SUM(E15:K15)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="21" customHeight="1">
+      <c r="A16" s="19"/>
+      <c r="B16" s="24">
         <v>2</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-    </row>
-    <row r="6" spans="2:13" ht="15" customHeight="1">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-    </row>
-    <row r="7" spans="2:13" ht="15" customHeight="1">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-    </row>
-    <row r="9" spans="2:13" ht="14.4">
-      <c r="B9" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="15" customHeight="1">
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="25" t="s">
+      <c r="C16" s="93" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="73"/>
+      <c r="E16" s="24">
+        <v>12</v>
+      </c>
+      <c r="F16" s="24">
+        <v>11</v>
+      </c>
+      <c r="G16" s="24">
+        <v>11</v>
+      </c>
+      <c r="H16" s="24">
         <v>10</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="I16" s="24">
+        <v>10</v>
+      </c>
+      <c r="J16" s="24">
+        <v>10</v>
+      </c>
+      <c r="K16" s="24">
         <v>11</v>
       </c>
-      <c r="H10" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" ht="14.4">
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-    </row>
-    <row r="12" spans="2:13" ht="14.4">
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-    </row>
-    <row r="13" spans="2:13" ht="14.4">
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-    </row>
-    <row r="14" spans="2:13" ht="14.4">
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-    </row>
-    <row r="15" spans="2:13" ht="21" customHeight="1">
-      <c r="B15" s="5">
-        <v>1</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="6">
-        <v>10</v>
-      </c>
-      <c r="F15" s="6">
-        <v>13</v>
-      </c>
-      <c r="G15" s="6">
-        <v>12</v>
-      </c>
-      <c r="H15" s="6">
-        <v>12</v>
-      </c>
-      <c r="I15" s="6">
-        <v>13</v>
-      </c>
-      <c r="J15" s="6">
-        <v>12</v>
-      </c>
-      <c r="K15" s="6">
-        <v>12</v>
-      </c>
-      <c r="L15" s="7">
-        <f>SUM(E15:K15)</f>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="21" customHeight="1">
-      <c r="B16" s="5">
-        <v>2</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="5">
-        <v>12</v>
-      </c>
-      <c r="F16" s="5">
-        <v>11</v>
-      </c>
-      <c r="G16" s="5">
-        <v>11</v>
-      </c>
-      <c r="H16" s="5">
-        <v>10</v>
-      </c>
-      <c r="I16" s="5">
-        <v>10</v>
-      </c>
-      <c r="J16" s="5">
-        <v>10</v>
-      </c>
-      <c r="K16" s="5">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7">
+      <c r="L16" s="33">
         <f t="shared" ref="L16:L19" si="0">SUM(E16:K16)</f>
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="21" customHeight="1">
-      <c r="B17" s="5">
+    <row r="17" spans="1:12" ht="21" customHeight="1">
+      <c r="A17" s="19"/>
+      <c r="B17" s="24">
         <v>3</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="6">
+      <c r="D17" s="73"/>
+      <c r="E17" s="25">
         <v>13</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="25">
         <v>10</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="25">
+        <v>10</v>
+      </c>
+      <c r="H17" s="25">
         <v>13</v>
       </c>
-      <c r="H17" s="6">
+      <c r="I17" s="25">
+        <v>11</v>
+      </c>
+      <c r="J17" s="25">
         <v>13</v>
       </c>
-      <c r="I17" s="6">
-        <v>11</v>
-      </c>
-      <c r="J17" s="6">
+      <c r="K17" s="25">
         <v>13</v>
       </c>
-      <c r="K17" s="6">
-        <v>13</v>
-      </c>
-      <c r="L17" s="7">
+      <c r="L17" s="33">
         <f t="shared" si="0"/>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="21" customHeight="1">
-      <c r="B18" s="5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="21" customHeight="1">
+      <c r="A18" s="19"/>
+      <c r="B18" s="24">
         <v>4</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="5">
+      <c r="D18" s="73"/>
+      <c r="E18" s="24">
         <v>9</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="24">
         <v>9</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="24">
         <v>8</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="25">
         <v>8</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="24">
         <v>9</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="24">
         <v>8</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="24">
         <v>8</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="33">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="21" customHeight="1">
-      <c r="B19" s="5">
+    <row r="19" spans="1:12" ht="21" customHeight="1">
+      <c r="A19" s="19"/>
+      <c r="B19" s="24">
         <v>5</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="6">
+      <c r="D19" s="73"/>
+      <c r="E19" s="25">
         <v>6</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="25">
         <v>7</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="25">
+        <v>9</v>
+      </c>
+      <c r="H19" s="25">
+        <v>7</v>
+      </c>
+      <c r="I19" s="25">
+        <v>8</v>
+      </c>
+      <c r="J19" s="25">
+        <v>7</v>
+      </c>
+      <c r="K19" s="25">
         <v>6</v>
       </c>
-      <c r="H19" s="6">
+      <c r="L19" s="33">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="21" customHeight="1">
+      <c r="A20" s="19"/>
+      <c r="B20" s="31">
+        <v>6</v>
+      </c>
+      <c r="C20" s="46"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="33"/>
+    </row>
+    <row r="21" spans="1:12" ht="21.75" customHeight="1">
+      <c r="A21" s="19"/>
+      <c r="B21" s="31">
         <v>7</v>
       </c>
-      <c r="I19" s="6">
-        <v>7</v>
-      </c>
-      <c r="J19" s="6">
-        <v>7</v>
-      </c>
-      <c r="K19" s="6">
-        <v>6</v>
-      </c>
-      <c r="L19" s="7">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="21" customHeight="1">
-      <c r="B20" s="5">
-        <v>6</v>
-      </c>
-      <c r="C20" s="13" t="s">
+      <c r="C21" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="5">
+      <c r="D21" s="47"/>
+      <c r="E21" s="32">
         <f>SUM(E15:E19)</f>
         <v>50</v>
       </c>
-      <c r="F20" s="5">
-        <f t="shared" ref="F20:K20" si="1">SUM(F15:F19)</f>
+      <c r="F21" s="32">
+        <f t="shared" ref="F21:K21" si="1">SUM(F15:F19)</f>
         <v>50</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G21" s="32">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H21" s="32">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I21" s="32">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J21" s="32">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K21" s="32">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L21" s="33">
         <f>SUM(L15:L19)</f>
         <v>350</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B21" s="5">
-        <v>7</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="7"/>
-    </row>
-    <row r="22" spans="2:12" ht="15.75" customHeight="1"/>
-    <row r="23" spans="2:12" ht="15.75" customHeight="1">
-      <c r="G23" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="15.75" customHeight="1">
-      <c r="F24" s="8"/>
-      <c r="G24" s="15" t="s">
+    <row r="22" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="25" spans="2:12" ht="15.75" customHeight="1"/>
-    <row r="26" spans="2:12" ht="15.75" customHeight="1"/>
-    <row r="27" spans="2:12" ht="15.75" customHeight="1"/>
-    <row r="28" spans="2:12" ht="38.25" customHeight="1"/>
-    <row r="29" spans="2:12" ht="15.75" customHeight="1"/>
-    <row r="30" spans="2:12" ht="15.75" customHeight="1"/>
-    <row r="31" spans="2:12" ht="15.75" customHeight="1"/>
-    <row r="32" spans="2:12" ht="15.75" customHeight="1"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:12" ht="38.25" customHeight="1"/>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -5288,10 +5793,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:M1001"/>
+  <dimension ref="A1:M1001"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:D18"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -5312,441 +5817,524 @@
     <col min="27" max="16384" width="14.44140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="1.5" customHeight="1">
-      <c r="B1" s="27" t="s">
+    <row r="1" spans="1:13" ht="1.5" customHeight="1">
+      <c r="A1" s="10"/>
+      <c r="B1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-    </row>
-    <row r="2" spans="2:13" ht="1.5" customHeight="1">
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-    </row>
-    <row r="3" spans="2:13" ht="54" customHeight="1">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="14"/>
-    </row>
-    <row r="4" spans="2:13" ht="45.75" customHeight="1">
-      <c r="B4" s="30" t="s">
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+    </row>
+    <row r="2" spans="1:13" ht="1.5" customHeight="1">
+      <c r="A2" s="10"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" spans="1:13" ht="54" customHeight="1">
+      <c r="A3" s="10"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="109" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" spans="1:13" ht="45.75" customHeight="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="96" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" ht="14.4" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="1:13" ht="14.4">
+      <c r="A9" s="10"/>
+      <c r="B9" s="97" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="98"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="113" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="111"/>
+      <c r="G9" s="114" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="110"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1">
+      <c r="A10" s="10"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="108" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="108" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="115" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="116" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="106"/>
+    </row>
+    <row r="11" spans="1:13" ht="14.4">
+      <c r="A11" s="10"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="106"/>
+    </row>
+    <row r="12" spans="1:13" ht="14.4">
+      <c r="A12" s="10"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="106"/>
+      <c r="L12" s="106"/>
+    </row>
+    <row r="13" spans="1:13" ht="14.4">
+      <c r="A13" s="10"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="106"/>
+    </row>
+    <row r="14" spans="1:13" ht="14.4">
+      <c r="A14" s="10"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="107"/>
+    </row>
+    <row r="15" spans="1:13" ht="21" customHeight="1">
+      <c r="A15" s="10"/>
+      <c r="B15" s="13">
         <v>1</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="2:13" ht="14.4">
-      <c r="B5" s="30" t="s">
+      <c r="C15" s="117" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="111"/>
+      <c r="E15" s="14">
+        <v>13</v>
+      </c>
+      <c r="F15" s="14">
+        <v>14</v>
+      </c>
+      <c r="G15" s="14">
+        <v>12</v>
+      </c>
+      <c r="H15" s="14">
+        <v>10</v>
+      </c>
+      <c r="I15" s="14">
+        <v>13</v>
+      </c>
+      <c r="J15" s="14">
+        <v>7</v>
+      </c>
+      <c r="K15" s="14">
+        <v>12</v>
+      </c>
+      <c r="L15" s="33">
+        <f>SUM(E15:K15)</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="21" customHeight="1">
+      <c r="A16" s="10"/>
+      <c r="B16" s="13">
         <v>2</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-    </row>
-    <row r="6" spans="2:13" ht="15" customHeight="1">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-    </row>
-    <row r="7" spans="2:13" ht="15" customHeight="1">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-    </row>
-    <row r="9" spans="2:13" ht="14.4">
-      <c r="B9" s="17" t="s">
+      <c r="C16" s="117" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="111"/>
+      <c r="E16" s="13">
+        <v>12</v>
+      </c>
+      <c r="F16" s="13">
+        <v>13</v>
+      </c>
+      <c r="G16" s="13">
+        <v>11</v>
+      </c>
+      <c r="H16" s="13">
+        <v>15</v>
+      </c>
+      <c r="I16" s="13">
+        <v>10</v>
+      </c>
+      <c r="J16" s="13">
+        <v>10</v>
+      </c>
+      <c r="K16" s="13">
+        <v>11</v>
+      </c>
+      <c r="L16" s="33">
+        <f t="shared" ref="L16:L19" si="0">SUM(E16:K16)</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="21" customHeight="1">
+      <c r="A17" s="10"/>
+      <c r="B17" s="13">
         <v>3</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="31" t="s">
+      <c r="C17" s="117" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="111"/>
+      <c r="E17" s="14">
+        <v>10</v>
+      </c>
+      <c r="F17" s="14">
+        <v>10</v>
+      </c>
+      <c r="G17" s="14">
+        <v>14</v>
+      </c>
+      <c r="H17" s="14">
+        <v>12</v>
+      </c>
+      <c r="I17" s="14">
+        <v>11</v>
+      </c>
+      <c r="J17" s="14">
+        <v>12</v>
+      </c>
+      <c r="K17" s="14">
+        <v>13</v>
+      </c>
+      <c r="L17" s="33">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="21" customHeight="1">
+      <c r="A18" s="10"/>
+      <c r="B18" s="13">
         <v>4</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="32" t="s">
+      <c r="C18" s="117" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="111"/>
+      <c r="E18" s="13">
+        <v>9</v>
+      </c>
+      <c r="F18" s="13">
+        <v>8</v>
+      </c>
+      <c r="G18" s="13">
+        <v>7</v>
+      </c>
+      <c r="H18" s="14">
+        <v>6</v>
+      </c>
+      <c r="I18" s="13">
+        <v>9</v>
+      </c>
+      <c r="J18" s="13">
+        <v>8</v>
+      </c>
+      <c r="K18" s="13">
+        <v>8</v>
+      </c>
+      <c r="L18" s="33">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="21" customHeight="1">
+      <c r="A19" s="10"/>
+      <c r="B19" s="13">
         <v>5</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="3" t="s">
+      <c r="C19" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="111"/>
+      <c r="E19" s="14">
         <v>6</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="F19" s="14">
+        <v>5</v>
+      </c>
+      <c r="G19" s="14">
+        <v>6</v>
+      </c>
+      <c r="H19" s="14">
         <v>7</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="I19" s="14">
+        <v>7</v>
+      </c>
+      <c r="J19" s="14">
+        <v>13</v>
+      </c>
+      <c r="K19" s="14">
+        <v>6</v>
+      </c>
+      <c r="L19" s="33">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="21" customHeight="1">
+      <c r="A20" s="10"/>
+      <c r="B20" s="31">
+        <v>6</v>
+      </c>
+      <c r="C20" s="46"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="33"/>
+    </row>
+    <row r="21" spans="1:12" ht="21.75" customHeight="1">
+      <c r="A21" s="10"/>
+      <c r="B21" s="31">
+        <v>7</v>
+      </c>
+      <c r="C21" s="46" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="2:13" ht="15" customHeight="1">
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" ht="14.4">
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-    </row>
-    <row r="12" spans="2:13" ht="14.4">
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-    </row>
-    <row r="13" spans="2:13" ht="14.4">
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-    </row>
-    <row r="14" spans="2:13" ht="14.4">
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-    </row>
-    <row r="15" spans="2:13" ht="21" customHeight="1">
-      <c r="B15" s="5">
-        <v>1</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="6">
-        <v>10</v>
-      </c>
-      <c r="F15" s="6">
-        <v>13</v>
-      </c>
-      <c r="G15" s="6">
-        <v>12</v>
-      </c>
-      <c r="H15" s="6">
-        <v>12</v>
-      </c>
-      <c r="I15" s="6">
-        <v>13</v>
-      </c>
-      <c r="J15" s="6">
-        <v>12</v>
-      </c>
-      <c r="K15" s="6">
-        <v>12</v>
-      </c>
-      <c r="L15" s="7">
-        <f>SUM(E15:K15)</f>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="21" customHeight="1">
-      <c r="B16" s="5">
-        <v>2</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="5">
-        <v>12</v>
-      </c>
-      <c r="F16" s="5">
-        <v>11</v>
-      </c>
-      <c r="G16" s="5">
-        <v>11</v>
-      </c>
-      <c r="H16" s="5">
-        <v>10</v>
-      </c>
-      <c r="I16" s="5">
-        <v>10</v>
-      </c>
-      <c r="J16" s="5">
-        <v>10</v>
-      </c>
-      <c r="K16" s="5">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7">
-        <f t="shared" ref="L16:L19" si="0">SUM(E16:K16)</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="21" customHeight="1">
-      <c r="B17" s="5">
-        <v>3</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="6">
-        <v>13</v>
-      </c>
-      <c r="F17" s="6">
-        <v>10</v>
-      </c>
-      <c r="G17" s="6">
-        <v>13</v>
-      </c>
-      <c r="H17" s="6">
-        <v>13</v>
-      </c>
-      <c r="I17" s="6">
-        <v>11</v>
-      </c>
-      <c r="J17" s="6">
-        <v>13</v>
-      </c>
-      <c r="K17" s="6">
-        <v>13</v>
-      </c>
-      <c r="L17" s="7">
-        <f t="shared" si="0"/>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="21" customHeight="1">
-      <c r="B18" s="5">
-        <v>4</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="5">
-        <v>9</v>
-      </c>
-      <c r="F18" s="5">
-        <v>9</v>
-      </c>
-      <c r="G18" s="5">
-        <v>8</v>
-      </c>
-      <c r="H18" s="6">
-        <v>8</v>
-      </c>
-      <c r="I18" s="5">
-        <v>9</v>
-      </c>
-      <c r="J18" s="5">
-        <v>8</v>
-      </c>
-      <c r="K18" s="5">
-        <v>8</v>
-      </c>
-      <c r="L18" s="7">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="21" customHeight="1">
-      <c r="B19" s="5">
-        <v>5</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="6">
-        <v>6</v>
-      </c>
-      <c r="F19" s="6">
-        <v>7</v>
-      </c>
-      <c r="G19" s="6">
-        <v>6</v>
-      </c>
-      <c r="H19" s="6">
-        <v>7</v>
-      </c>
-      <c r="I19" s="6">
-        <v>7</v>
-      </c>
-      <c r="J19" s="6">
-        <v>7</v>
-      </c>
-      <c r="K19" s="6">
-        <v>6</v>
-      </c>
-      <c r="L19" s="7">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="21" customHeight="1">
-      <c r="B20" s="5">
-        <v>6</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="5">
+      <c r="D21" s="47"/>
+      <c r="E21" s="32">
         <f>SUM(E15:E19)</f>
         <v>50</v>
       </c>
-      <c r="F20" s="5">
-        <f t="shared" ref="F20:K20" si="1">SUM(F15:F19)</f>
+      <c r="F21" s="32">
+        <f t="shared" ref="F21:K21" si="1">SUM(F15:F19)</f>
         <v>50</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G21" s="32">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H21" s="32">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I21" s="32">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J21" s="32">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K21" s="32">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L21" s="33">
         <f>SUM(L15:L19)</f>
         <v>350</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B21" s="5">
-        <v>7</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="7"/>
-    </row>
-    <row r="22" spans="2:12" ht="15.75" customHeight="1"/>
-    <row r="23" spans="2:12" ht="15.75" customHeight="1">
-      <c r="G23" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="15.75" customHeight="1">
-      <c r="F24" s="8"/>
-      <c r="G24" s="15" t="s">
+    <row r="22" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="25" spans="2:12" ht="15.75" customHeight="1"/>
-    <row r="26" spans="2:12" ht="15.75" customHeight="1"/>
-    <row r="27" spans="2:12" ht="15.75" customHeight="1"/>
-    <row r="28" spans="2:12" ht="38.25" customHeight="1"/>
-    <row r="29" spans="2:12" ht="15.75" customHeight="1"/>
-    <row r="30" spans="2:12" ht="15.75" customHeight="1"/>
-    <row r="31" spans="2:12" ht="15.75" customHeight="1"/>
-    <row r="32" spans="2:12" ht="15.75" customHeight="1"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:12" ht="38.25" customHeight="1"/>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -6718,29 +7306,29 @@
     <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="L9:L14"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="I10:I14"/>
+    <mergeCell ref="J10:J14"/>
+    <mergeCell ref="K10:K14"/>
+    <mergeCell ref="B1:F3"/>
+    <mergeCell ref="B5:K7"/>
+    <mergeCell ref="B9:D14"/>
     <mergeCell ref="E10:E14"/>
     <mergeCell ref="F10:F14"/>
     <mergeCell ref="G10:G14"/>
     <mergeCell ref="H10:H14"/>
-    <mergeCell ref="I10:I14"/>
-    <mergeCell ref="J10:J14"/>
-    <mergeCell ref="K10:K14"/>
-    <mergeCell ref="B1:F3"/>
     <mergeCell ref="H3:K3"/>
     <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K7"/>
-    <mergeCell ref="B9:D14"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -6752,10 +7340,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:M1001"/>
+  <dimension ref="A1:M1001"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:D19"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -6776,305 +7364,353 @@
     <col min="27" max="16384" width="14.44140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="1.5" customHeight="1">
-      <c r="B1" s="27" t="s">
+    <row r="1" spans="1:13" ht="1.5" customHeight="1">
+      <c r="A1" s="19"/>
+      <c r="B1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-    </row>
-    <row r="2" spans="2:13" ht="1.5" customHeight="1">
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-    </row>
-    <row r="3" spans="2:13" ht="54" customHeight="1">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+    </row>
+    <row r="2" spans="1:13" ht="1.5" customHeight="1">
+      <c r="A2" s="19"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+    </row>
+    <row r="3" spans="1:13" ht="54" customHeight="1">
+      <c r="A3" s="19"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="14"/>
-    </row>
-    <row r="4" spans="2:13" ht="45.75" customHeight="1">
-      <c r="B4" s="30" t="s">
+      <c r="H3" s="119" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="19"/>
+    </row>
+    <row r="4" spans="1:13" ht="45.75" customHeight="1">
+      <c r="A4" s="19"/>
+      <c r="B4" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="19"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="2:13" ht="14.4">
-      <c r="B5" s="30" t="s">
+    <row r="5" spans="1:13" ht="14.4" customHeight="1">
+      <c r="A5" s="19"/>
+      <c r="B5" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-    </row>
-    <row r="6" spans="2:13" ht="15" customHeight="1">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-    </row>
-    <row r="7" spans="2:13" ht="15" customHeight="1">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-    </row>
-    <row r="9" spans="2:13" ht="14.4">
-      <c r="B9" s="17" t="s">
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="19"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1">
+      <c r="A6" s="19"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="19"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1">
+      <c r="A7" s="19"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="19"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+    </row>
+    <row r="9" spans="1:13" ht="14.4">
+      <c r="A9" s="19"/>
+      <c r="B9" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="31" t="s">
+      <c r="C9" s="49"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="32" t="s">
+      <c r="F9" s="47"/>
+      <c r="G9" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="14"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="47"/>
       <c r="J9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="L9" s="43" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="15" customHeight="1">
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="25" t="s">
+    <row r="10" spans="1:13" ht="15" customHeight="1">
+      <c r="A10" s="19"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="33" t="s">
+      <c r="I10" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="34" t="s">
+      <c r="J10" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="26" t="s">
+      <c r="K10" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" ht="14.4">
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-    </row>
-    <row r="12" spans="2:13" ht="14.4">
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-    </row>
-    <row r="13" spans="2:13" ht="14.4">
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-    </row>
-    <row r="14" spans="2:13" ht="14.4">
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-    </row>
-    <row r="15" spans="2:13" ht="21" customHeight="1">
+      <c r="L10" s="44"/>
+    </row>
+    <row r="11" spans="1:13" ht="14.4">
+      <c r="A11" s="19"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+    </row>
+    <row r="12" spans="1:13" ht="14.4">
+      <c r="A12" s="19"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+    </row>
+    <row r="13" spans="1:13" ht="14.4">
+      <c r="A13" s="19"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+    </row>
+    <row r="14" spans="1:13" ht="14.4">
+      <c r="A14" s="19"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+    </row>
+    <row r="15" spans="1:13" ht="21" customHeight="1">
+      <c r="A15" s="19"/>
       <c r="B15" s="5">
         <v>1</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="14"/>
+      <c r="D15" s="47"/>
       <c r="E15" s="6">
         <v>10</v>
       </c>
       <c r="F15" s="6">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G15" s="6">
         <v>12</v>
       </c>
       <c r="H15" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I15" s="6">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J15" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K15" s="6">
-        <v>12</v>
-      </c>
-      <c r="L15" s="7">
+        <v>8</v>
+      </c>
+      <c r="L15" s="33">
         <f>SUM(E15:K15)</f>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="21" customHeight="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="21" customHeight="1">
+      <c r="A16" s="19"/>
       <c r="B16" s="5">
         <v>2</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="14"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="5">
         <v>12</v>
       </c>
       <c r="F16" s="5">
+        <v>8</v>
+      </c>
+      <c r="G16" s="5">
+        <v>9</v>
+      </c>
+      <c r="H16" s="5">
+        <v>9</v>
+      </c>
+      <c r="I16" s="5">
         <v>11</v>
       </c>
-      <c r="G16" s="5">
+      <c r="J16" s="5">
         <v>11</v>
       </c>
-      <c r="H16" s="5">
+      <c r="K16" s="5">
         <v>10</v>
       </c>
-      <c r="I16" s="5">
-        <v>10</v>
-      </c>
-      <c r="J16" s="5">
-        <v>10</v>
-      </c>
-      <c r="K16" s="5">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7">
+      <c r="L16" s="33">
         <f t="shared" ref="L16:L19" si="0">SUM(E16:K16)</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="21" customHeight="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="21" customHeight="1">
+      <c r="A17" s="19"/>
       <c r="B17" s="5">
         <v>3</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="14"/>
+      <c r="D17" s="47"/>
       <c r="E17" s="6">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F17" s="6">
         <v>10</v>
       </c>
       <c r="G17" s="6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H17" s="6">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I17" s="6">
+        <v>12</v>
+      </c>
+      <c r="J17" s="6">
+        <v>8</v>
+      </c>
+      <c r="K17" s="6">
         <v>11</v>
       </c>
-      <c r="J17" s="6">
-        <v>13</v>
-      </c>
-      <c r="K17" s="6">
-        <v>13</v>
-      </c>
-      <c r="L17" s="7">
+      <c r="L17" s="33">
         <f t="shared" si="0"/>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="21" customHeight="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="21" customHeight="1">
+      <c r="A18" s="19"/>
       <c r="B18" s="5">
         <v>4</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="14"/>
+      <c r="C18" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="47"/>
       <c r="E18" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18" s="5">
         <v>9</v>
@@ -7082,135 +7718,172 @@
       <c r="G18" s="5">
         <v>8</v>
       </c>
-      <c r="H18" s="6">
-        <v>8</v>
+      <c r="H18" s="5">
+        <v>11</v>
       </c>
       <c r="I18" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J18" s="5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K18" s="5">
-        <v>8</v>
-      </c>
-      <c r="L18" s="7">
+        <v>12</v>
+      </c>
+      <c r="L18" s="33">
         <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="21" customHeight="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="21" customHeight="1">
+      <c r="A19" s="19"/>
       <c r="B19" s="5">
         <v>5</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="14"/>
+      <c r="C19" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="47"/>
       <c r="E19" s="6">
+        <v>9</v>
+      </c>
+      <c r="F19" s="6">
+        <v>12</v>
+      </c>
+      <c r="G19" s="6">
+        <v>11</v>
+      </c>
+      <c r="H19" s="6">
+        <v>12</v>
+      </c>
+      <c r="I19" s="6">
+        <v>8</v>
+      </c>
+      <c r="J19" s="6">
+        <v>9</v>
+      </c>
+      <c r="K19" s="6">
+        <v>9</v>
+      </c>
+      <c r="L19" s="33">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="21" customHeight="1">
+      <c r="A20" s="19"/>
+      <c r="B20" s="31">
         <v>6</v>
       </c>
-      <c r="F19" s="6">
+      <c r="C20" s="46"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="33"/>
+    </row>
+    <row r="21" spans="1:12" ht="21.75" customHeight="1">
+      <c r="A21" s="19"/>
+      <c r="B21" s="31">
         <v>7</v>
       </c>
-      <c r="G19" s="6">
-        <v>6</v>
-      </c>
-      <c r="H19" s="6">
-        <v>7</v>
-      </c>
-      <c r="I19" s="6">
-        <v>7</v>
-      </c>
-      <c r="J19" s="6">
-        <v>7</v>
-      </c>
-      <c r="K19" s="6">
-        <v>6</v>
-      </c>
-      <c r="L19" s="7">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="21" customHeight="1">
-      <c r="B20" s="5">
-        <v>6</v>
-      </c>
-      <c r="C20" s="13" t="s">
+      <c r="C21" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="5">
+      <c r="D21" s="47"/>
+      <c r="E21" s="32">
         <f>SUM(E15:E19)</f>
         <v>50</v>
       </c>
-      <c r="F20" s="5">
-        <f t="shared" ref="F20:K20" si="1">SUM(F15:F19)</f>
+      <c r="F21" s="32">
+        <f t="shared" ref="F21:K21" si="1">SUM(F15:F19)</f>
         <v>50</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G21" s="32">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H21" s="32">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I21" s="32">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J21" s="32">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K21" s="32">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L21" s="33">
         <f>SUM(L15:L19)</f>
         <v>350</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B21" s="5">
-        <v>7</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="7"/>
-    </row>
-    <row r="22" spans="2:12" ht="15.75" customHeight="1"/>
-    <row r="23" spans="2:12" ht="15.75" customHeight="1">
-      <c r="G23" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="15.75" customHeight="1">
+    <row r="22" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="16"/>
+      <c r="H24" s="49"/>
       <c r="I24" s="8"/>
-    </row>
-    <row r="25" spans="2:12" ht="15.75" customHeight="1"/>
-    <row r="26" spans="2:12" ht="15.75" customHeight="1"/>
-    <row r="27" spans="2:12" ht="15.75" customHeight="1"/>
-    <row r="28" spans="2:12" ht="38.25" customHeight="1"/>
-    <row r="29" spans="2:12" ht="15.75" customHeight="1"/>
-    <row r="30" spans="2:12" ht="15.75" customHeight="1"/>
-    <row r="31" spans="2:12" ht="15.75" customHeight="1"/>
-    <row r="32" spans="2:12" ht="15.75" customHeight="1"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:12" ht="38.25" customHeight="1"/>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -8216,10 +8889,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:M1001"/>
+  <dimension ref="A1:M1001"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -8240,441 +8913,524 @@
     <col min="27" max="16384" width="14.44140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="1.5" customHeight="1">
-      <c r="B1" s="27" t="s">
+    <row r="1" spans="1:13" ht="1.5" customHeight="1">
+      <c r="A1" s="18"/>
+      <c r="B1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-    </row>
-    <row r="2" spans="2:13" ht="1.5" customHeight="1">
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-    </row>
-    <row r="3" spans="2:13" ht="54" customHeight="1">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="14"/>
-    </row>
-    <row r="4" spans="2:13" ht="45.75" customHeight="1">
-      <c r="B4" s="30" t="s">
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+    </row>
+    <row r="2" spans="1:13" ht="1.5" customHeight="1">
+      <c r="A2" s="18"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+    </row>
+    <row r="3" spans="1:13" ht="54" customHeight="1">
+      <c r="A3" s="18"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="27"/>
+    </row>
+    <row r="4" spans="1:13" ht="45.75" customHeight="1">
+      <c r="A4" s="18"/>
+      <c r="B4" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="27"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="2:13" ht="14.4">
-      <c r="B5" s="30" t="s">
+    <row r="5" spans="1:13" ht="14.4" customHeight="1">
+      <c r="A5" s="18"/>
+      <c r="B5" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-    </row>
-    <row r="6" spans="2:13" ht="15" customHeight="1">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-    </row>
-    <row r="7" spans="2:13" ht="15" customHeight="1">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-    </row>
-    <row r="9" spans="2:13" ht="14.4">
-      <c r="B9" s="17" t="s">
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="27"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1">
+      <c r="A6" s="18"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="27"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1">
+      <c r="A7" s="18"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="27"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" spans="1:13" ht="14.4">
+      <c r="A9" s="18"/>
+      <c r="B9" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="31" t="s">
+      <c r="C9" s="49"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="32" t="s">
+      <c r="F9" s="47"/>
+      <c r="G9" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="3" t="s">
+      <c r="H9" s="64"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="L9" s="43" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="15" customHeight="1">
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="25" t="s">
+    <row r="10" spans="1:13" ht="15" customHeight="1">
+      <c r="A10" s="18"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="33" t="s">
+      <c r="I10" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="34" t="s">
+      <c r="J10" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="26" t="s">
+      <c r="K10" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" ht="14.4">
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-    </row>
-    <row r="12" spans="2:13" ht="14.4">
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-    </row>
-    <row r="13" spans="2:13" ht="14.4">
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-    </row>
-    <row r="14" spans="2:13" ht="14.4">
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-    </row>
-    <row r="15" spans="2:13" ht="21" customHeight="1">
-      <c r="B15" s="5">
+      <c r="L10" s="44"/>
+    </row>
+    <row r="11" spans="1:13" ht="14.4">
+      <c r="A11" s="18"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+    </row>
+    <row r="12" spans="1:13" ht="14.4">
+      <c r="A12" s="18"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+    </row>
+    <row r="13" spans="1:13" ht="14.4">
+      <c r="A13" s="18"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+    </row>
+    <row r="14" spans="1:13" ht="14.4">
+      <c r="A14" s="18"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+    </row>
+    <row r="15" spans="1:13" ht="21" customHeight="1">
+      <c r="A15" s="18"/>
+      <c r="B15" s="31">
         <v>1</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="6">
+      <c r="D15" s="47"/>
+      <c r="E15" s="32">
         <v>10</v>
       </c>
-      <c r="F15" s="6">
-        <v>13</v>
-      </c>
-      <c r="G15" s="6">
+      <c r="F15" s="32">
+        <v>9</v>
+      </c>
+      <c r="G15" s="32">
+        <v>11</v>
+      </c>
+      <c r="H15" s="32">
         <v>12</v>
       </c>
-      <c r="H15" s="6">
+      <c r="I15" s="32">
+        <v>9</v>
+      </c>
+      <c r="J15" s="32">
         <v>12</v>
       </c>
-      <c r="I15" s="6">
-        <v>13</v>
-      </c>
-      <c r="J15" s="6">
+      <c r="K15" s="32">
         <v>12</v>
       </c>
-      <c r="K15" s="6">
+      <c r="L15" s="33">
+        <f>SUM(E15:K15)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="21" customHeight="1">
+      <c r="A16" s="18"/>
+      <c r="B16" s="31">
+        <v>2</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="47"/>
+      <c r="E16" s="31">
+        <v>11</v>
+      </c>
+      <c r="F16" s="31">
+        <v>14</v>
+      </c>
+      <c r="G16" s="31">
+        <v>9</v>
+      </c>
+      <c r="H16" s="31">
+        <v>8</v>
+      </c>
+      <c r="I16" s="31">
+        <v>10</v>
+      </c>
+      <c r="J16" s="31">
+        <v>10</v>
+      </c>
+      <c r="K16" s="31">
+        <v>11</v>
+      </c>
+      <c r="L16" s="33">
+        <f t="shared" ref="L16:L19" si="0">SUM(E16:K16)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="21" customHeight="1">
+      <c r="A17" s="18"/>
+      <c r="B17" s="31">
+        <v>3</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="47"/>
+      <c r="E17" s="32">
+        <v>8</v>
+      </c>
+      <c r="F17" s="32">
+        <v>10</v>
+      </c>
+      <c r="G17" s="32">
+        <v>10</v>
+      </c>
+      <c r="H17" s="32">
+        <v>9</v>
+      </c>
+      <c r="I17" s="32">
+        <v>8</v>
+      </c>
+      <c r="J17" s="32">
+        <v>9</v>
+      </c>
+      <c r="K17" s="32">
+        <v>8</v>
+      </c>
+      <c r="L17" s="33">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="21" customHeight="1">
+      <c r="A18" s="18"/>
+      <c r="B18" s="31">
+        <v>4</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="47"/>
+      <c r="E18" s="31">
+        <v>9</v>
+      </c>
+      <c r="F18" s="31">
+        <v>9</v>
+      </c>
+      <c r="G18" s="31">
+        <v>8</v>
+      </c>
+      <c r="H18" s="32">
+        <v>11</v>
+      </c>
+      <c r="I18" s="31">
+        <v>9</v>
+      </c>
+      <c r="J18" s="31">
+        <v>11</v>
+      </c>
+      <c r="K18" s="31">
+        <v>10</v>
+      </c>
+      <c r="L18" s="33">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="21" customHeight="1">
+      <c r="A19" s="18"/>
+      <c r="B19" s="31">
+        <v>5</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="47"/>
+      <c r="E19" s="32">
         <v>12</v>
       </c>
-      <c r="L15" s="7">
-        <f>SUM(E15:K15)</f>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="21" customHeight="1">
-      <c r="B16" s="5">
-        <v>2</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="5">
+      <c r="F19" s="32">
+        <v>8</v>
+      </c>
+      <c r="G19" s="32">
         <v>12</v>
       </c>
-      <c r="F16" s="5">
-        <v>11</v>
-      </c>
-      <c r="G16" s="5">
-        <v>11</v>
-      </c>
-      <c r="H16" s="5">
+      <c r="H19" s="32">
         <v>10</v>
       </c>
-      <c r="I16" s="5">
-        <v>10</v>
-      </c>
-      <c r="J16" s="5">
-        <v>10</v>
-      </c>
-      <c r="K16" s="5">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7">
-        <f t="shared" ref="L16:L19" si="0">SUM(E16:K16)</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="21" customHeight="1">
-      <c r="B17" s="5">
-        <v>3</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="6">
-        <v>13</v>
-      </c>
-      <c r="F17" s="6">
-        <v>10</v>
-      </c>
-      <c r="G17" s="6">
-        <v>13</v>
-      </c>
-      <c r="H17" s="6">
-        <v>13</v>
-      </c>
-      <c r="I17" s="6">
-        <v>11</v>
-      </c>
-      <c r="J17" s="6">
-        <v>13</v>
-      </c>
-      <c r="K17" s="6">
-        <v>13</v>
-      </c>
-      <c r="L17" s="7">
+      <c r="I19" s="32">
+        <v>14</v>
+      </c>
+      <c r="J19" s="32">
+        <v>8</v>
+      </c>
+      <c r="K19" s="32">
+        <v>9</v>
+      </c>
+      <c r="L19" s="33">
         <f t="shared" si="0"/>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="21" customHeight="1">
-      <c r="B18" s="5">
-        <v>4</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="5">
-        <v>9</v>
-      </c>
-      <c r="F18" s="5">
-        <v>9</v>
-      </c>
-      <c r="G18" s="5">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="21" customHeight="1">
+      <c r="A20" s="18"/>
+      <c r="B20" s="31">
+        <v>6</v>
+      </c>
+      <c r="C20" s="46"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="33"/>
+    </row>
+    <row r="21" spans="1:12" ht="21.75" customHeight="1">
+      <c r="A21" s="18"/>
+      <c r="B21" s="31">
+        <v>7</v>
+      </c>
+      <c r="C21" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="6">
-        <v>8</v>
-      </c>
-      <c r="I18" s="5">
-        <v>9</v>
-      </c>
-      <c r="J18" s="5">
-        <v>8</v>
-      </c>
-      <c r="K18" s="5">
-        <v>8</v>
-      </c>
-      <c r="L18" s="7">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="21" customHeight="1">
-      <c r="B19" s="5">
-        <v>5</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="6">
-        <v>6</v>
-      </c>
-      <c r="F19" s="6">
-        <v>7</v>
-      </c>
-      <c r="G19" s="6">
-        <v>6</v>
-      </c>
-      <c r="H19" s="6">
-        <v>7</v>
-      </c>
-      <c r="I19" s="6">
-        <v>7</v>
-      </c>
-      <c r="J19" s="6">
-        <v>7</v>
-      </c>
-      <c r="K19" s="6">
-        <v>6</v>
-      </c>
-      <c r="L19" s="7">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="21" customHeight="1">
-      <c r="B20" s="5">
-        <v>6</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="5">
+      <c r="D21" s="47"/>
+      <c r="E21" s="32">
         <f>SUM(E15:E19)</f>
         <v>50</v>
       </c>
-      <c r="F20" s="5">
-        <f t="shared" ref="F20:K20" si="1">SUM(F15:F19)</f>
+      <c r="F21" s="32">
+        <f t="shared" ref="F21:K21" si="1">SUM(F15:F19)</f>
         <v>50</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G21" s="32">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H21" s="32">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I21" s="32">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J21" s="32">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K21" s="32">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L21" s="33">
         <f>SUM(L15:L19)</f>
         <v>350</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B21" s="5">
-        <v>7</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="7"/>
-    </row>
-    <row r="22" spans="2:12" ht="15.75" customHeight="1"/>
-    <row r="23" spans="2:12" ht="15.75" customHeight="1">
-      <c r="G23" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="15.75" customHeight="1">
-      <c r="F24" s="8"/>
-      <c r="G24" s="15" t="s">
+    <row r="22" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A22" s="18"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A23" s="18"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A24" s="18"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="25" spans="2:12" ht="15.75" customHeight="1"/>
-    <row r="26" spans="2:12" ht="15.75" customHeight="1"/>
-    <row r="27" spans="2:12" ht="15.75" customHeight="1"/>
-    <row r="28" spans="2:12" ht="38.25" customHeight="1"/>
-    <row r="29" spans="2:12" ht="15.75" customHeight="1"/>
-    <row r="30" spans="2:12" ht="15.75" customHeight="1"/>
-    <row r="31" spans="2:12" ht="15.75" customHeight="1"/>
-    <row r="32" spans="2:12" ht="15.75" customHeight="1"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:12" ht="38.25" customHeight="1"/>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -9646,15 +10402,22 @@
     <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C21:D21"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B1:F3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L9:L14"/>
+    <mergeCell ref="C21:D21"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="L9:L14"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K7"/>
+    <mergeCell ref="B9:D14"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:I9"/>
     <mergeCell ref="E10:E14"/>
     <mergeCell ref="F10:F14"/>
     <mergeCell ref="G10:G14"/>
@@ -9662,13 +10425,6 @@
     <mergeCell ref="I10:I14"/>
     <mergeCell ref="J10:J14"/>
     <mergeCell ref="K10:K14"/>
-    <mergeCell ref="B1:F3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K7"/>
-    <mergeCell ref="B9:D14"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
